--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.683430395725907</v>
+        <v>2.683430395726418</v>
       </c>
       <c r="C2">
-        <v>0.5411642392244573</v>
+        <v>0.5411642392249973</v>
       </c>
       <c r="D2">
-        <v>0.2058269838515656</v>
+        <v>0.2058269838514093</v>
       </c>
       <c r="E2">
-        <v>0.06393009368651192</v>
+        <v>0.06393009368660074</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904932292230512</v>
+        <v>8.904932292230399</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1430915764679277</v>
+        <v>0.1430915764679987</v>
       </c>
       <c r="L2">
-        <v>0.6762167584727763</v>
+        <v>0.6762167584727408</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.284097670217477</v>
+        <v>2.284097670218046</v>
       </c>
       <c r="C3">
         <v>0.4570228270229677</v>
       </c>
       <c r="D3">
-        <v>0.1762103280683505</v>
+        <v>0.1762103280685494</v>
       </c>
       <c r="E3">
-        <v>0.0570870172749558</v>
+        <v>0.05708701727506238</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.75876100317015</v>
+        <v>7.758761003170179</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1234823208025588</v>
+        <v>0.1234823208025695</v>
       </c>
       <c r="L3">
-        <v>0.5783917471721551</v>
+        <v>0.5783917471721765</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048141625566757</v>
+        <v>2.048141625566871</v>
       </c>
       <c r="C4">
-        <v>0.4074973968106406</v>
+        <v>0.4074973968106121</v>
       </c>
       <c r="D4">
-        <v>0.1585802803015923</v>
+        <v>0.1585802803012797</v>
       </c>
       <c r="E4">
-        <v>0.05301111015362991</v>
+        <v>0.05301111015365834</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.075557836406631</v>
+        <v>7.075557836406688</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1118256348516553</v>
+        <v>0.1118256348516198</v>
       </c>
       <c r="L4">
-        <v>0.5204487351250791</v>
+        <v>0.5204487351250862</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.953944372801402</v>
+        <v>1.953944372801686</v>
       </c>
       <c r="C5">
-        <v>0.3877587773874893</v>
+        <v>0.3877587773875462</v>
       </c>
       <c r="D5">
-        <v>0.1515126580930968</v>
+        <v>0.1515126580933241</v>
       </c>
       <c r="E5">
-        <v>0.05137652963607309</v>
+        <v>0.0513765296361548</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.801437673910641</v>
+        <v>6.801437673910669</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1071571769203743</v>
+        <v>0.1071571769203388</v>
       </c>
       <c r="L5">
         <v>0.4972874427460496</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938411440058672</v>
+        <v>1.938411440058815</v>
       </c>
       <c r="C6">
-        <v>0.3845054798240426</v>
+        <v>0.3845054798244121</v>
       </c>
       <c r="D6">
-        <v>0.1503455303429746</v>
+        <v>0.1503455303431167</v>
       </c>
       <c r="E6">
-        <v>0.05110656225109977</v>
+        <v>0.05110656225114596</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756155940641662</v>
+        <v>6.756155940641804</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1063865265028667</v>
+        <v>0.1063865265028809</v>
       </c>
       <c r="L6">
-        <v>0.4934665606429576</v>
+        <v>0.4934665606429647</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.046863771972653</v>
+        <v>2.046863771972824</v>
       </c>
       <c r="C7">
-        <v>0.4072295140673532</v>
+        <v>0.4072295140678079</v>
       </c>
       <c r="D7">
-        <v>0.1584845189075139</v>
+        <v>0.1584845189072439</v>
       </c>
       <c r="E7">
-        <v>0.05298896521846075</v>
+        <v>0.05298896521853891</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.071844657191889</v>
+        <v>7.071844657191917</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1117623614631249</v>
+        <v>0.1117623614631071</v>
       </c>
       <c r="L7">
-        <v>0.5201346489510925</v>
+        <v>0.5201346489511351</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.543586280222428</v>
+        <v>2.543586280222087</v>
       </c>
       <c r="C8">
-        <v>0.5116472840505821</v>
+        <v>0.51164728405044</v>
       </c>
       <c r="D8">
-        <v>0.1954853303407305</v>
+        <v>0.1954853303405599</v>
       </c>
       <c r="E8">
-        <v>0.06154110753042374</v>
+        <v>0.06154110753035269</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.504899797920302</v>
+        <v>8.504899797920473</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0.1362412206403896</v>
       </c>
       <c r="L8">
-        <v>0.6419927553521561</v>
+        <v>0.6419927553521774</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.610824188883896</v>
+        <v>3.61082418888401</v>
       </c>
       <c r="C9">
-        <v>0.7385379222229176</v>
+        <v>0.7385379222228892</v>
       </c>
       <c r="D9">
-        <v>0.273672116051543</v>
+        <v>0.2736721160517277</v>
       </c>
       <c r="E9">
-        <v>0.07959247477259268</v>
+        <v>0.07959247477254294</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.52550149010807</v>
+        <v>11.52550149010821</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.188077240938135</v>
+        <v>0.188077240938199</v>
       </c>
       <c r="L9">
-        <v>0.9022674071891714</v>
+        <v>0.902267407189143</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.486520195428682</v>
+        <v>4.486520195428511</v>
       </c>
       <c r="C10">
-        <v>0.9278673163308042</v>
+        <v>0.9278673163302358</v>
       </c>
       <c r="D10">
-        <v>0.3366764898136836</v>
+        <v>0.3366764898132288</v>
       </c>
       <c r="E10">
-        <v>0.09412579194458814</v>
+        <v>0.09412579194463078</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.95506325252751</v>
+        <v>13.95506325252754</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2298623602022971</v>
+        <v>0.2298623602023397</v>
       </c>
       <c r="L10">
-        <v>1.114274265670041</v>
+        <v>1.114274265670019</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.915409004931121</v>
+        <v>4.915409004930552</v>
       </c>
       <c r="C11">
-        <v>1.021746341861046</v>
+        <v>1.021746341860535</v>
       </c>
       <c r="D11">
-        <v>0.3671888545103172</v>
+        <v>0.3671888545101325</v>
       </c>
       <c r="E11">
-        <v>0.101161299905467</v>
+        <v>0.1011612999053781</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.130757190964</v>
+        <v>15.13075719096383</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.250084009752527</v>
+        <v>0.2500840097525341</v>
       </c>
       <c r="L11">
-        <v>1.217596318937282</v>
+        <v>1.217596318937339</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.083412656259043</v>
+        <v>5.08341265625927</v>
       </c>
       <c r="C12">
-        <v>1.058736063190196</v>
+        <v>1.058736063190793</v>
       </c>
       <c r="D12">
-        <v>0.3790814693710445</v>
+        <v>0.3790814693710729</v>
       </c>
       <c r="E12">
-        <v>0.1039030904010545</v>
+        <v>0.1039030904011149</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.58887455691746</v>
+        <v>15.58887455691763</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2579615201538203</v>
+        <v>0.2579615201537777</v>
       </c>
       <c r="L12">
-        <v>1.257977071498246</v>
+        <v>1.257977071498274</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.046958391117755</v>
+        <v>5.046958391117641</v>
       </c>
       <c r="C13">
-        <v>1.050699391864185</v>
+        <v>1.05069939186302</v>
       </c>
       <c r="D13">
-        <v>0.3765037717223549</v>
+        <v>0.3765037717232929</v>
       </c>
       <c r="E13">
-        <v>0.1033088305466556</v>
+        <v>0.1033088305467125</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.48958408830271</v>
+        <v>15.48958408830248</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2562543112976172</v>
+        <v>0.2562543112975533</v>
       </c>
       <c r="L13">
-        <v>1.249219488484052</v>
+        <v>1.24921948848408</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.92911054803767</v>
+        <v>4.929110548038011</v>
       </c>
       <c r="C14">
-        <v>1.024758442514667</v>
+        <v>1.024758442515349</v>
       </c>
       <c r="D14">
-        <v>0.3681600033911252</v>
+        <v>0.368160003390571</v>
       </c>
       <c r="E14">
-        <v>0.1013852017576049</v>
+        <v>0.1013852017575729</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.16816942781077</v>
+        <v>15.16816942781065</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2507273824486873</v>
+        <v>0.2507273824486163</v>
       </c>
       <c r="L14">
-        <v>1.220891525372302</v>
+        <v>1.220891525372316</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857695238412191</v>
+        <v>4.857695238411964</v>
       </c>
       <c r="C15">
-        <v>1.009067655426264</v>
+        <v>1.009067655426122</v>
       </c>
       <c r="D15">
-        <v>0.3630957322040729</v>
+        <v>0.3630957322039023</v>
       </c>
       <c r="E15">
         <v>0.100217600225939</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.97307005291657</v>
+        <v>14.97307005291691</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2473721930266208</v>
+        <v>0.2473721930265995</v>
       </c>
       <c r="L15">
-        <v>1.203712417849268</v>
+        <v>1.203712417849282</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.459200998404242</v>
+        <v>4.459200998404924</v>
       </c>
       <c r="C16">
-        <v>0.9219137884774966</v>
+        <v>0.9219137884780935</v>
       </c>
       <c r="D16">
-        <v>0.3347254122453762</v>
+        <v>0.3347254122456036</v>
       </c>
       <c r="E16">
-        <v>0.09367585968258751</v>
+        <v>0.09367585968263725</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.8798674103891</v>
+        <v>13.87986741038947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.2285688676043023</v>
       </c>
       <c r="L16">
-        <v>1.107681449725789</v>
+        <v>1.107681449725838</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.223313645650705</v>
+        <v>4.223313645650933</v>
       </c>
       <c r="C17">
-        <v>0.8706366750398331</v>
+        <v>0.8706366750400321</v>
       </c>
       <c r="D17">
-        <v>0.3178407851431331</v>
+        <v>0.317840785143261</v>
       </c>
       <c r="E17">
-        <v>0.08978183949892582</v>
+        <v>0.08978183949891871</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.22902415577977</v>
+        <v>13.22902415577929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2173732275998788</v>
+        <v>0.2173732275999285</v>
       </c>
       <c r="L17">
-        <v>1.05069898654326</v>
+        <v>1.05069898654321</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.09042298422878</v>
+        <v>4.090422984229065</v>
       </c>
       <c r="C18">
-        <v>0.8418491344111487</v>
+        <v>0.8418491344120298</v>
       </c>
       <c r="D18">
-        <v>0.3082981975650654</v>
+        <v>0.3082981975656622</v>
       </c>
       <c r="E18">
-        <v>0.0875808213283058</v>
+        <v>0.08758082132832712</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.8611073320013</v>
+        <v>12.86110733200155</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2110446897486327</v>
+        <v>0.2110446897486256</v>
       </c>
       <c r="L18">
-        <v>1.01855224750593</v>
+        <v>1.018552247505923</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.045875436770416</v>
+        <v>4.045875436769961</v>
       </c>
       <c r="C19">
-        <v>0.8322149194176518</v>
+        <v>0.8322149194169128</v>
       </c>
       <c r="D19">
-        <v>0.3050943746699488</v>
+        <v>0.3050943746698067</v>
       </c>
       <c r="E19">
-        <v>0.08684180854114487</v>
+        <v>0.08684180854115198</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.73756863651178</v>
+        <v>12.73756863651204</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2089198019525611</v>
+        <v>0.2089198019525043</v>
       </c>
       <c r="L19">
         <v>1.007768811865475</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.248128299257019</v>
+        <v>4.248128299256905</v>
       </c>
       <c r="C20">
-        <v>0.8760201121156967</v>
+        <v>0.8760201121158957</v>
       </c>
       <c r="D20">
-        <v>0.3196202302626432</v>
+        <v>0.3196202302622169</v>
       </c>
       <c r="E20">
-        <v>0.0901922511318638</v>
+        <v>0.09019225113177853</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.29762419096394</v>
+        <v>13.2976241909634</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2185532528367133</v>
+        <v>0.2185532528366849</v>
       </c>
       <c r="L20">
-        <v>1.05669816583714</v>
+        <v>1.056698165837176</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.96356221310333</v>
+        <v>4.963562213103501</v>
       </c>
       <c r="C21">
-        <v>1.032335776041094</v>
+        <v>1.032335776040782</v>
       </c>
       <c r="D21">
-        <v>0.370600915814407</v>
+        <v>0.3706009158144639</v>
       </c>
       <c r="E21">
-        <v>0.1019479566730332</v>
+        <v>0.1019479566730439</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.26220041499147</v>
+        <v>15.2622004149913</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2523443792192168</v>
+        <v>0.2523443792192239</v>
       </c>
       <c r="L21">
-        <v>1.229175582618652</v>
+        <v>1.229175582618616</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.46457573675184</v>
+        <v>5.464575736752067</v>
       </c>
       <c r="C22">
-        <v>1.143118602783716</v>
+        <v>1.143118602784455</v>
       </c>
       <c r="D22">
-        <v>0.4059409059500183</v>
+        <v>0.4059409059496346</v>
       </c>
       <c r="E22">
-        <v>0.110094730591161</v>
+        <v>0.1100947305911752</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.62331036014319</v>
+        <v>16.62331036014308</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2757423591976931</v>
+        <v>0.2757423591977215</v>
       </c>
       <c r="L22">
         <v>1.349398034120838</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.193620703082047</v>
+        <v>5.193620703082445</v>
       </c>
       <c r="C23">
-        <v>1.083067908009269</v>
+        <v>1.083067908008587</v>
       </c>
       <c r="D23">
-        <v>0.3868648687666649</v>
+        <v>0.3868648687666365</v>
       </c>
       <c r="E23">
-        <v>0.1056974130042256</v>
+        <v>0.1056974130041226</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.88866623848526</v>
+        <v>15.88866623848531</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2631156712603797</v>
+        <v>0.2631156712603158</v>
       </c>
       <c r="L23">
-        <v>1.284437911996775</v>
+        <v>1.284437911996747</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.23690119517255</v>
+        <v>4.236901195172379</v>
       </c>
       <c r="C24">
-        <v>0.8735841268234026</v>
+        <v>0.8735841268230331</v>
       </c>
       <c r="D24">
-        <v>0.3188152355527052</v>
+        <v>0.3188152355530463</v>
       </c>
       <c r="E24">
-        <v>0.09000658777340931</v>
+        <v>0.09000658777349102</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.26659080981929</v>
+        <v>13.26659080981923</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2180194303390337</v>
+        <v>0.2180194303389982</v>
       </c>
       <c r="L24">
         <v>1.05398404576912</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.308992231253512</v>
+        <v>3.308992231253455</v>
       </c>
       <c r="C25">
-        <v>0.6739690399164431</v>
+        <v>0.6739690399166136</v>
       </c>
       <c r="D25">
-        <v>0.2517247804997709</v>
+        <v>0.2517247804992024</v>
       </c>
       <c r="E25">
-        <v>0.07452750915556905</v>
+        <v>0.07452750915550865</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.67837737225912</v>
+        <v>10.67837737225886</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1735197063534031</v>
+        <v>0.1735197063533711</v>
       </c>
       <c r="L25">
-        <v>0.828869215665982</v>
+        <v>0.8288692156659252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.683430395726418</v>
+        <v>2.683430395725907</v>
       </c>
       <c r="C2">
-        <v>0.5411642392249973</v>
+        <v>0.5411642392244573</v>
       </c>
       <c r="D2">
-        <v>0.2058269838514093</v>
+        <v>0.2058269838515656</v>
       </c>
       <c r="E2">
-        <v>0.06393009368660074</v>
+        <v>0.06393009368651192</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904932292230399</v>
+        <v>8.904932292230512</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1430915764679987</v>
+        <v>0.1430915764679277</v>
       </c>
       <c r="L2">
-        <v>0.6762167584727408</v>
+        <v>0.6762167584727763</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.284097670218046</v>
+        <v>2.284097670217477</v>
       </c>
       <c r="C3">
         <v>0.4570228270229677</v>
       </c>
       <c r="D3">
-        <v>0.1762103280685494</v>
+        <v>0.1762103280683505</v>
       </c>
       <c r="E3">
-        <v>0.05708701727506238</v>
+        <v>0.0570870172749558</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.758761003170179</v>
+        <v>7.75876100317015</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1234823208025695</v>
+        <v>0.1234823208025588</v>
       </c>
       <c r="L3">
-        <v>0.5783917471721765</v>
+        <v>0.5783917471721551</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048141625566871</v>
+        <v>2.048141625566757</v>
       </c>
       <c r="C4">
-        <v>0.4074973968106121</v>
+        <v>0.4074973968106406</v>
       </c>
       <c r="D4">
-        <v>0.1585802803012797</v>
+        <v>0.1585802803015923</v>
       </c>
       <c r="E4">
-        <v>0.05301111015365834</v>
+        <v>0.05301111015362991</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.075557836406688</v>
+        <v>7.075557836406631</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1118256348516198</v>
+        <v>0.1118256348516553</v>
       </c>
       <c r="L4">
-        <v>0.5204487351250862</v>
+        <v>0.5204487351250791</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.953944372801686</v>
+        <v>1.953944372801402</v>
       </c>
       <c r="C5">
-        <v>0.3877587773875462</v>
+        <v>0.3877587773874893</v>
       </c>
       <c r="D5">
-        <v>0.1515126580933241</v>
+        <v>0.1515126580930968</v>
       </c>
       <c r="E5">
-        <v>0.0513765296361548</v>
+        <v>0.05137652963607309</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.801437673910669</v>
+        <v>6.801437673910641</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1071571769203388</v>
+        <v>0.1071571769203743</v>
       </c>
       <c r="L5">
         <v>0.4972874427460496</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938411440058815</v>
+        <v>1.938411440058672</v>
       </c>
       <c r="C6">
-        <v>0.3845054798244121</v>
+        <v>0.3845054798240426</v>
       </c>
       <c r="D6">
-        <v>0.1503455303431167</v>
+        <v>0.1503455303429746</v>
       </c>
       <c r="E6">
-        <v>0.05110656225114596</v>
+        <v>0.05110656225109977</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756155940641804</v>
+        <v>6.756155940641662</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1063865265028809</v>
+        <v>0.1063865265028667</v>
       </c>
       <c r="L6">
-        <v>0.4934665606429647</v>
+        <v>0.4934665606429576</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.046863771972824</v>
+        <v>2.046863771972653</v>
       </c>
       <c r="C7">
-        <v>0.4072295140678079</v>
+        <v>0.4072295140673532</v>
       </c>
       <c r="D7">
-        <v>0.1584845189072439</v>
+        <v>0.1584845189075139</v>
       </c>
       <c r="E7">
-        <v>0.05298896521853891</v>
+        <v>0.05298896521846075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.071844657191917</v>
+        <v>7.071844657191889</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1117623614631071</v>
+        <v>0.1117623614631249</v>
       </c>
       <c r="L7">
-        <v>0.5201346489511351</v>
+        <v>0.5201346489510925</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.543586280222087</v>
+        <v>2.543586280222428</v>
       </c>
       <c r="C8">
-        <v>0.51164728405044</v>
+        <v>0.5116472840505821</v>
       </c>
       <c r="D8">
-        <v>0.1954853303405599</v>
+        <v>0.1954853303407305</v>
       </c>
       <c r="E8">
-        <v>0.06154110753035269</v>
+        <v>0.06154110753042374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.504899797920473</v>
+        <v>8.504899797920302</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0.1362412206403896</v>
       </c>
       <c r="L8">
-        <v>0.6419927553521774</v>
+        <v>0.6419927553521561</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.61082418888401</v>
+        <v>3.610824188883896</v>
       </c>
       <c r="C9">
-        <v>0.7385379222228892</v>
+        <v>0.7385379222229176</v>
       </c>
       <c r="D9">
-        <v>0.2736721160517277</v>
+        <v>0.273672116051543</v>
       </c>
       <c r="E9">
-        <v>0.07959247477254294</v>
+        <v>0.07959247477259268</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.52550149010821</v>
+        <v>11.52550149010807</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.188077240938199</v>
+        <v>0.188077240938135</v>
       </c>
       <c r="L9">
-        <v>0.902267407189143</v>
+        <v>0.9022674071891714</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.486520195428511</v>
+        <v>4.486520195428682</v>
       </c>
       <c r="C10">
-        <v>0.9278673163302358</v>
+        <v>0.9278673163308042</v>
       </c>
       <c r="D10">
-        <v>0.3366764898132288</v>
+        <v>0.3366764898136836</v>
       </c>
       <c r="E10">
-        <v>0.09412579194463078</v>
+        <v>0.09412579194458814</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.95506325252754</v>
+        <v>13.95506325252751</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2298623602023397</v>
+        <v>0.2298623602022971</v>
       </c>
       <c r="L10">
-        <v>1.114274265670019</v>
+        <v>1.114274265670041</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.915409004930552</v>
+        <v>4.915409004931121</v>
       </c>
       <c r="C11">
-        <v>1.021746341860535</v>
+        <v>1.021746341861046</v>
       </c>
       <c r="D11">
-        <v>0.3671888545101325</v>
+        <v>0.3671888545103172</v>
       </c>
       <c r="E11">
-        <v>0.1011612999053781</v>
+        <v>0.101161299905467</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.13075719096383</v>
+        <v>15.130757190964</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2500840097525341</v>
+        <v>0.250084009752527</v>
       </c>
       <c r="L11">
-        <v>1.217596318937339</v>
+        <v>1.217596318937282</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.08341265625927</v>
+        <v>5.083412656259043</v>
       </c>
       <c r="C12">
-        <v>1.058736063190793</v>
+        <v>1.058736063190196</v>
       </c>
       <c r="D12">
-        <v>0.3790814693710729</v>
+        <v>0.3790814693710445</v>
       </c>
       <c r="E12">
-        <v>0.1039030904011149</v>
+        <v>0.1039030904010545</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.58887455691763</v>
+        <v>15.58887455691746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2579615201537777</v>
+        <v>0.2579615201538203</v>
       </c>
       <c r="L12">
-        <v>1.257977071498274</v>
+        <v>1.257977071498246</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.046958391117641</v>
+        <v>5.046958391117755</v>
       </c>
       <c r="C13">
-        <v>1.05069939186302</v>
+        <v>1.050699391864185</v>
       </c>
       <c r="D13">
-        <v>0.3765037717232929</v>
+        <v>0.3765037717223549</v>
       </c>
       <c r="E13">
-        <v>0.1033088305467125</v>
+        <v>0.1033088305466556</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.48958408830248</v>
+        <v>15.48958408830271</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2562543112975533</v>
+        <v>0.2562543112976172</v>
       </c>
       <c r="L13">
-        <v>1.24921948848408</v>
+        <v>1.249219488484052</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.929110548038011</v>
+        <v>4.92911054803767</v>
       </c>
       <c r="C14">
-        <v>1.024758442515349</v>
+        <v>1.024758442514667</v>
       </c>
       <c r="D14">
-        <v>0.368160003390571</v>
+        <v>0.3681600033911252</v>
       </c>
       <c r="E14">
-        <v>0.1013852017575729</v>
+        <v>0.1013852017576049</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.16816942781065</v>
+        <v>15.16816942781077</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2507273824486163</v>
+        <v>0.2507273824486873</v>
       </c>
       <c r="L14">
-        <v>1.220891525372316</v>
+        <v>1.220891525372302</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857695238411964</v>
+        <v>4.857695238412191</v>
       </c>
       <c r="C15">
-        <v>1.009067655426122</v>
+        <v>1.009067655426264</v>
       </c>
       <c r="D15">
-        <v>0.3630957322039023</v>
+        <v>0.3630957322040729</v>
       </c>
       <c r="E15">
         <v>0.100217600225939</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.97307005291691</v>
+        <v>14.97307005291657</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2473721930265995</v>
+        <v>0.2473721930266208</v>
       </c>
       <c r="L15">
-        <v>1.203712417849282</v>
+        <v>1.203712417849268</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.459200998404924</v>
+        <v>4.459200998404242</v>
       </c>
       <c r="C16">
-        <v>0.9219137884780935</v>
+        <v>0.9219137884774966</v>
       </c>
       <c r="D16">
-        <v>0.3347254122456036</v>
+        <v>0.3347254122453762</v>
       </c>
       <c r="E16">
-        <v>0.09367585968263725</v>
+        <v>0.09367585968258751</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.87986741038947</v>
+        <v>13.8798674103891</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0.2285688676043023</v>
       </c>
       <c r="L16">
-        <v>1.107681449725838</v>
+        <v>1.107681449725789</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.223313645650933</v>
+        <v>4.223313645650705</v>
       </c>
       <c r="C17">
-        <v>0.8706366750400321</v>
+        <v>0.8706366750398331</v>
       </c>
       <c r="D17">
-        <v>0.317840785143261</v>
+        <v>0.3178407851431331</v>
       </c>
       <c r="E17">
-        <v>0.08978183949891871</v>
+        <v>0.08978183949892582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.22902415577929</v>
+        <v>13.22902415577977</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2173732275999285</v>
+        <v>0.2173732275998788</v>
       </c>
       <c r="L17">
-        <v>1.05069898654321</v>
+        <v>1.05069898654326</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.090422984229065</v>
+        <v>4.09042298422878</v>
       </c>
       <c r="C18">
-        <v>0.8418491344120298</v>
+        <v>0.8418491344111487</v>
       </c>
       <c r="D18">
-        <v>0.3082981975656622</v>
+        <v>0.3082981975650654</v>
       </c>
       <c r="E18">
-        <v>0.08758082132832712</v>
+        <v>0.0875808213283058</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.86110733200155</v>
+        <v>12.8611073320013</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2110446897486256</v>
+        <v>0.2110446897486327</v>
       </c>
       <c r="L18">
-        <v>1.018552247505923</v>
+        <v>1.01855224750593</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.045875436769961</v>
+        <v>4.045875436770416</v>
       </c>
       <c r="C19">
-        <v>0.8322149194169128</v>
+        <v>0.8322149194176518</v>
       </c>
       <c r="D19">
-        <v>0.3050943746698067</v>
+        <v>0.3050943746699488</v>
       </c>
       <c r="E19">
-        <v>0.08684180854115198</v>
+        <v>0.08684180854114487</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.73756863651204</v>
+        <v>12.73756863651178</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2089198019525043</v>
+        <v>0.2089198019525611</v>
       </c>
       <c r="L19">
         <v>1.007768811865475</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.248128299256905</v>
+        <v>4.248128299257019</v>
       </c>
       <c r="C20">
-        <v>0.8760201121158957</v>
+        <v>0.8760201121156967</v>
       </c>
       <c r="D20">
-        <v>0.3196202302622169</v>
+        <v>0.3196202302626432</v>
       </c>
       <c r="E20">
-        <v>0.09019225113177853</v>
+        <v>0.0901922511318638</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.2976241909634</v>
+        <v>13.29762419096394</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2185532528366849</v>
+        <v>0.2185532528367133</v>
       </c>
       <c r="L20">
-        <v>1.056698165837176</v>
+        <v>1.05669816583714</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.963562213103501</v>
+        <v>4.96356221310333</v>
       </c>
       <c r="C21">
-        <v>1.032335776040782</v>
+        <v>1.032335776041094</v>
       </c>
       <c r="D21">
-        <v>0.3706009158144639</v>
+        <v>0.370600915814407</v>
       </c>
       <c r="E21">
-        <v>0.1019479566730439</v>
+        <v>0.1019479566730332</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.2622004149913</v>
+        <v>15.26220041499147</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2523443792192239</v>
+        <v>0.2523443792192168</v>
       </c>
       <c r="L21">
-        <v>1.229175582618616</v>
+        <v>1.229175582618652</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.464575736752067</v>
+        <v>5.46457573675184</v>
       </c>
       <c r="C22">
-        <v>1.143118602784455</v>
+        <v>1.143118602783716</v>
       </c>
       <c r="D22">
-        <v>0.4059409059496346</v>
+        <v>0.4059409059500183</v>
       </c>
       <c r="E22">
-        <v>0.1100947305911752</v>
+        <v>0.110094730591161</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.62331036014308</v>
+        <v>16.62331036014319</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2757423591977215</v>
+        <v>0.2757423591976931</v>
       </c>
       <c r="L22">
         <v>1.349398034120838</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.193620703082445</v>
+        <v>5.193620703082047</v>
       </c>
       <c r="C23">
-        <v>1.083067908008587</v>
+        <v>1.083067908009269</v>
       </c>
       <c r="D23">
-        <v>0.3868648687666365</v>
+        <v>0.3868648687666649</v>
       </c>
       <c r="E23">
-        <v>0.1056974130041226</v>
+        <v>0.1056974130042256</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.88866623848531</v>
+        <v>15.88866623848526</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2631156712603158</v>
+        <v>0.2631156712603797</v>
       </c>
       <c r="L23">
-        <v>1.284437911996747</v>
+        <v>1.284437911996775</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.236901195172379</v>
+        <v>4.23690119517255</v>
       </c>
       <c r="C24">
-        <v>0.8735841268230331</v>
+        <v>0.8735841268234026</v>
       </c>
       <c r="D24">
-        <v>0.3188152355530463</v>
+        <v>0.3188152355527052</v>
       </c>
       <c r="E24">
-        <v>0.09000658777349102</v>
+        <v>0.09000658777340931</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.26659080981923</v>
+        <v>13.26659080981929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2180194303389982</v>
+        <v>0.2180194303390337</v>
       </c>
       <c r="L24">
         <v>1.05398404576912</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.308992231253455</v>
+        <v>3.308992231253512</v>
       </c>
       <c r="C25">
-        <v>0.6739690399166136</v>
+        <v>0.6739690399164431</v>
       </c>
       <c r="D25">
-        <v>0.2517247804992024</v>
+        <v>0.2517247804997709</v>
       </c>
       <c r="E25">
-        <v>0.07452750915550865</v>
+        <v>0.07452750915556905</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.67837737225886</v>
+        <v>10.67837737225912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1735197063533711</v>
+        <v>0.1735197063534031</v>
       </c>
       <c r="L25">
-        <v>0.8288692156659252</v>
+        <v>0.828869215665982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.683430395725907</v>
+        <v>2.682626886801927</v>
       </c>
       <c r="C2">
-        <v>0.5411642392244573</v>
+        <v>0.5407429415356546</v>
       </c>
       <c r="D2">
-        <v>0.2058269838515656</v>
+        <v>0.2057948990668592</v>
       </c>
       <c r="E2">
-        <v>0.06393009368651192</v>
+        <v>0.0638836843143693</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.904932292230512</v>
+        <v>2.909892395105373</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.945029602510857</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1430915764679277</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6762167584727763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1430744057323494</v>
+      </c>
+      <c r="M2">
+        <v>0.6760893603858946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.284097670217477</v>
+        <v>2.28359540362635</v>
       </c>
       <c r="C3">
-        <v>0.4570228270229677</v>
+        <v>0.4567304041670468</v>
       </c>
       <c r="D3">
-        <v>0.1762103280683505</v>
+        <v>0.1761892429236269</v>
       </c>
       <c r="E3">
-        <v>0.0570870172749558</v>
+        <v>0.05705100527266183</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.75876100317015</v>
+        <v>2.527095545288233</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.189297226932865</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1234823208025588</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5783917471721551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1234711994856035</v>
+      </c>
+      <c r="M3">
+        <v>0.5783151588462729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048141625566757</v>
+        <v>2.047787035388126</v>
       </c>
       <c r="C4">
-        <v>0.4074973968106406</v>
+        <v>0.4072723298978644</v>
       </c>
       <c r="D4">
-        <v>0.1585802803015923</v>
+        <v>0.1585646429449525</v>
       </c>
       <c r="E4">
-        <v>0.05301111015362991</v>
+        <v>0.05298115141112092</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.075557836406631</v>
+        <v>2.298854004151337</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.738863134352471</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1118256348516553</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5204487351250791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1118174805876642</v>
+      </c>
+      <c r="M4">
+        <v>0.5203965204904932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.953944372801402</v>
+        <v>1.953642279816336</v>
       </c>
       <c r="C5">
-        <v>0.3877587773874893</v>
+        <v>0.3875587482586695</v>
       </c>
       <c r="D5">
-        <v>0.1515126580930968</v>
+        <v>0.1514989820487358</v>
       </c>
       <c r="E5">
-        <v>0.05137652963607309</v>
+        <v>0.05134897839262287</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.801437673910641</v>
+        <v>2.207261513358162</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.55814729706367</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1071571769203743</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4972874427460496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1071500838098309</v>
+      </c>
+      <c r="M5">
+        <v>0.4972437635482621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938411440058672</v>
+        <v>1.938117643511021</v>
       </c>
       <c r="C6">
-        <v>0.3845054798240426</v>
+        <v>0.3843094767268553</v>
       </c>
       <c r="D6">
-        <v>0.1503455303429746</v>
+        <v>0.1503321661066082</v>
       </c>
       <c r="E6">
-        <v>0.05110656225109977</v>
+        <v>0.05107940780240305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.756155940641662</v>
+        <v>2.192130491365702</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.528295652140798</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1063865265028667</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4934665606429576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1063796016681273</v>
+      </c>
+      <c r="M6">
+        <v>0.4934242224878673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.046863771972653</v>
+        <v>2.04650991889747</v>
       </c>
       <c r="C7">
-        <v>0.4072295140673532</v>
+        <v>0.407004793932515</v>
       </c>
       <c r="D7">
-        <v>0.1584845189075139</v>
+        <v>0.1584689089688993</v>
       </c>
       <c r="E7">
-        <v>0.05298896521846075</v>
+        <v>0.05295903915618538</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.071844657191889</v>
+        <v>2.297613372170247</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.736415146530163</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1117623614631249</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5201346489510925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1117542220627179</v>
+      </c>
+      <c r="M7">
+        <v>0.5200825547103705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.543586280222428</v>
+        <v>2.542895512984899</v>
       </c>
       <c r="C8">
-        <v>0.5116472840505821</v>
+        <v>0.5112732337292982</v>
       </c>
       <c r="D8">
-        <v>0.1954853303407305</v>
+        <v>0.1954573564110405</v>
       </c>
       <c r="E8">
-        <v>0.06154110753042374</v>
+        <v>0.06149836785897733</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.504899797920302</v>
+        <v>2.776304745843191</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.681259350140806</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1362412206403896</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6419927553521561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1362263178929375</v>
+      </c>
+      <c r="M8">
+        <v>0.6418845068281982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.610824188883896</v>
+        <v>3.609076580354611</v>
       </c>
       <c r="C9">
-        <v>0.7385379222229176</v>
+        <v>0.7377452148627128</v>
       </c>
       <c r="D9">
-        <v>0.273672116051543</v>
+        <v>0.2736053035445138</v>
       </c>
       <c r="E9">
-        <v>0.07959247477259268</v>
+        <v>0.07952056278571362</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.52550149010807</v>
+        <v>3.784671750637926</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.673054718822044</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.188077240938135</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9022674071891714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1880407136603566</v>
+      </c>
+      <c r="M9">
+        <v>0.9019758755094713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.486520195428682</v>
+        <v>4.483558581330897</v>
       </c>
       <c r="C10">
-        <v>0.9278673163308042</v>
+        <v>0.9266273816168962</v>
       </c>
       <c r="D10">
-        <v>0.3366764898136836</v>
+        <v>0.3365637428672272</v>
       </c>
       <c r="E10">
-        <v>0.09412579194458814</v>
+        <v>0.09402719957721928</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13.95506325252751</v>
+        <v>4.595230612891157</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.27510787701965</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2298623602022971</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.114274265670041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2297999452378079</v>
+      </c>
+      <c r="M10">
+        <v>1.113765956655442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.915409004931121</v>
+        <v>4.911730728299574</v>
       </c>
       <c r="C11">
-        <v>1.021746341861046</v>
+        <v>1.020250522410606</v>
       </c>
       <c r="D11">
-        <v>0.3671888545103172</v>
+        <v>0.3670483263518065</v>
       </c>
       <c r="E11">
-        <v>0.101161299905467</v>
+        <v>0.1010484456680096</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.130757190964</v>
+        <v>4.987323412234502</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.05029926761921</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.250084009752527</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.217596318937282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2500058502248024</v>
+      </c>
+      <c r="M11">
+        <v>1.216958146390503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.083412656259043</v>
+        <v>5.079430420303595</v>
       </c>
       <c r="C12">
-        <v>1.058736063190196</v>
+        <v>1.057132973833603</v>
       </c>
       <c r="D12">
-        <v>0.3790814693710445</v>
+        <v>0.3789290214712935</v>
       </c>
       <c r="E12">
-        <v>0.1039030904010545</v>
+        <v>0.1037844032641502</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>15.58887455691746</v>
+        <v>5.140079632029824</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.35234154037209</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2579615201538203</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.257977071498246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.257876590646994</v>
+      </c>
+      <c r="M12">
+        <v>1.25728348761119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.046958391117755</v>
+        <v>5.04304324974612</v>
       </c>
       <c r="C13">
-        <v>1.050699391864185</v>
+        <v>1.049119924049506</v>
       </c>
       <c r="D13">
-        <v>0.3765037717223549</v>
+        <v>0.3763539616742975</v>
       </c>
       <c r="E13">
-        <v>0.1033088305466556</v>
+        <v>0.1031914214423857</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>15.48958408830271</v>
+        <v>5.106973094659509</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.28687902837652</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2562543112976172</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.249219488484052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2561708806706093</v>
+      </c>
+      <c r="M13">
+        <v>1.248538151470683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.92911054803767</v>
+        <v>4.92540798173934</v>
       </c>
       <c r="C14">
-        <v>1.024758442514667</v>
+        <v>1.023254026132975</v>
       </c>
       <c r="D14">
-        <v>0.3681600033911252</v>
+        <v>0.3680185256220341</v>
       </c>
       <c r="E14">
-        <v>0.1013852017576049</v>
+        <v>0.1012718772194319</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.16816942781077</v>
+        <v>4.99979881290443</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.07496598545833</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2507273824486873</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.220891525372302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2506486838714537</v>
+      </c>
+      <c r="M14">
+        <v>1.220248931653522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.857695238412191</v>
+        <v>4.854118311041532</v>
       </c>
       <c r="C15">
-        <v>1.009067655426264</v>
+        <v>1.007607756009122</v>
       </c>
       <c r="D15">
-        <v>0.3630957322040729</v>
+        <v>0.3629591607799796</v>
       </c>
       <c r="E15">
-        <v>0.100217600225939</v>
+        <v>0.1001067166744782</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14.97307005291657</v>
+        <v>4.93474036518711</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.946331928001996</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2473721930266208</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.203712417849268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2472962789775366</v>
+      </c>
+      <c r="M15">
+        <v>1.203092679568961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.459200998404242</v>
+        <v>4.456282225799555</v>
       </c>
       <c r="C16">
-        <v>0.9219137884774966</v>
+        <v>0.9206893035835719</v>
       </c>
       <c r="D16">
-        <v>0.3347254122453762</v>
+        <v>0.334614311056626</v>
       </c>
       <c r="E16">
-        <v>0.09367585968258751</v>
+        <v>0.0935781468753305</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>13.8798674103891</v>
+        <v>4.570149667349199</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.225525877159669</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2285688676043023</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.107681449725789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2285073836332288</v>
+      </c>
+      <c r="M16">
+        <v>1.107180865351388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.223313645650705</v>
+        <v>4.220751190135388</v>
       </c>
       <c r="C17">
-        <v>0.8706366750398331</v>
+        <v>0.8695414851475221</v>
       </c>
       <c r="D17">
-        <v>0.3178407851431331</v>
+        <v>0.3177433035052957</v>
       </c>
       <c r="E17">
-        <v>0.08978183949892582</v>
+        <v>0.08969158664938348</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.22902415577977</v>
+        <v>4.353050133739799</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.796371085823466</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2173732275998788</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.05069898654326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2173194395239761</v>
+      </c>
+      <c r="M17">
+        <v>1.050262459461784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.09042298422878</v>
+        <v>4.088050690907892</v>
       </c>
       <c r="C18">
-        <v>0.8418491344111487</v>
+        <v>0.8408235948305958</v>
       </c>
       <c r="D18">
-        <v>0.3082981975650654</v>
+        <v>0.3082079334903938</v>
       </c>
       <c r="E18">
-        <v>0.0875808213283058</v>
+        <v>0.08749466906999359</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>12.8611073320013</v>
+        <v>4.230312455363446</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.553768105132548</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2110446897486327</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.01855224750593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2109949732295746</v>
+      </c>
+      <c r="M18">
+        <v>1.018149758460041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.045875436770416</v>
+        <v>4.043565208967721</v>
       </c>
       <c r="C19">
-        <v>0.8322149194176518</v>
+        <v>0.8312122216273394</v>
       </c>
       <c r="D19">
-        <v>0.3050943746699488</v>
+        <v>0.3050064584376173</v>
       </c>
       <c r="E19">
-        <v>0.08684180854114487</v>
+        <v>0.08675701511241485</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>12.73756863651178</v>
+        <v>4.189097622137609</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.472306474548503</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2089198019525611</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.007768811865475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2088714087682249</v>
+      </c>
+      <c r="M19">
+        <v>1.0073774080251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.248128299257019</v>
+        <v>4.245529496894051</v>
       </c>
       <c r="C20">
-        <v>0.8760201121156967</v>
+        <v>0.8749116638183239</v>
       </c>
       <c r="D20">
-        <v>0.3196202302626432</v>
+        <v>0.3195213650012079</v>
       </c>
       <c r="E20">
-        <v>0.0901922511318638</v>
+        <v>0.09010122460372827</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.29762419096394</v>
+        <v>4.375934184460533</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.841605327577867</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2185532528367133</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.05669816583714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2184986836665104</v>
+      </c>
+      <c r="M20">
+        <v>1.056255120617379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.96356221310333</v>
+        <v>4.959798182060013</v>
       </c>
       <c r="C21">
-        <v>1.032335776041094</v>
+        <v>1.030809625061266</v>
       </c>
       <c r="D21">
-        <v>0.370600915814407</v>
+        <v>0.3704570327904548</v>
       </c>
       <c r="E21">
-        <v>0.1019479566730332</v>
+        <v>0.1018334453997269</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.26220041499147</v>
+        <v>5.031153754093509</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.13696240952265</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2523443792192168</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.229175582618652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2522643150572534</v>
+      </c>
+      <c r="M21">
+        <v>1.228521795799672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.46457573675184</v>
+        <v>5.459853072804435</v>
       </c>
       <c r="C22">
-        <v>1.143118602783716</v>
+        <v>1.141256728684311</v>
       </c>
       <c r="D22">
-        <v>0.4059409059500183</v>
+        <v>0.4057591044699365</v>
       </c>
       <c r="E22">
-        <v>0.110094730591161</v>
+        <v>0.1099622490946288</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16.62331036014319</v>
+        <v>5.48495248925758</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.03431588768655</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2757423591976931</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.349398034120838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2756407271456425</v>
+      </c>
+      <c r="M22">
+        <v>1.348568755972636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.193620703082047</v>
+        <v>5.189431732770799</v>
       </c>
       <c r="C23">
-        <v>1.083067908009269</v>
+        <v>1.081392225070886</v>
       </c>
       <c r="D23">
-        <v>0.3868648687666649</v>
+        <v>0.3867042694918865</v>
       </c>
       <c r="E23">
-        <v>0.1056974130042256</v>
+        <v>0.1055748193692416</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>15.88866623848526</v>
+        <v>5.240035430031242</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.54999198210987</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2631156712603797</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.284437911996775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2630261076816396</v>
+      </c>
+      <c r="M23">
+        <v>1.28370653913607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.23690119517255</v>
+        <v>4.234318870353718</v>
       </c>
       <c r="C24">
-        <v>0.8735841268234026</v>
+        <v>0.8724816870414429</v>
       </c>
       <c r="D24">
-        <v>0.3188152355527052</v>
+        <v>0.318716997707412</v>
       </c>
       <c r="E24">
-        <v>0.09000658777340931</v>
+        <v>0.08991591160286205</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.26659080981929</v>
+        <v>4.365581905432947</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.821142212309923</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2180194303390337</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.05398404576912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2179652153844529</v>
+      </c>
+      <c r="M24">
+        <v>1.053543955967484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.308992231253512</v>
+        <v>3.307589534201327</v>
       </c>
       <c r="C25">
-        <v>0.6739690399164431</v>
+        <v>0.673308407594476</v>
       </c>
       <c r="D25">
-        <v>0.2517247804997709</v>
+        <v>0.2516707458960212</v>
       </c>
       <c r="E25">
-        <v>0.07452750915556905</v>
+        <v>0.07446415742496626</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.67837737225912</v>
+        <v>3.501951018015774</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.114445219829236</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1735197063534031</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.828869215665982</v>
+        <v>0.1734903322747456</v>
+      </c>
+      <c r="M25">
+        <v>0.8286382599777724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.682626886801927</v>
+        <v>5.529792198169616</v>
       </c>
       <c r="C2">
-        <v>0.5407429415356546</v>
+        <v>1.660218653150991</v>
       </c>
       <c r="D2">
-        <v>0.2057948990668592</v>
+        <v>0.5603677780548537</v>
       </c>
       <c r="E2">
-        <v>0.0638836843143693</v>
+        <v>0.2506528744008065</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.909892395105373</v>
+        <v>0.0007939480032478618</v>
       </c>
       <c r="H2">
-        <v>5.945029602510857</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1488488549040881</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1430744057323494</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6760893603858946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.359733677901843</v>
+      </c>
+      <c r="O2">
+        <v>3.051707737181445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.28359540362635</v>
+        <v>4.783570368192045</v>
       </c>
       <c r="C3">
-        <v>0.4567304041670468</v>
+        <v>1.430247172147403</v>
       </c>
       <c r="D3">
-        <v>0.1761892429236269</v>
+        <v>0.5018506564377958</v>
       </c>
       <c r="E3">
-        <v>0.05705100527266183</v>
+        <v>0.2230245273987705</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.527095545288233</v>
+        <v>0.0008070120918307434</v>
       </c>
       <c r="H3">
-        <v>5.189297226932865</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1313466562125427</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1234711994856035</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5783151588462729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.37758659636377</v>
+      </c>
+      <c r="O3">
+        <v>2.750042116501675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.047787035388126</v>
+        <v>4.338993349714144</v>
       </c>
       <c r="C4">
-        <v>0.4072723298978644</v>
+        <v>1.293352611565012</v>
       </c>
       <c r="D4">
-        <v>0.1585646429449525</v>
+        <v>0.4674196720506245</v>
       </c>
       <c r="E4">
-        <v>0.05298115141112092</v>
+        <v>0.2067534626806946</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.298854004151337</v>
+        <v>0.0008151685671207928</v>
       </c>
       <c r="H4">
-        <v>4.738863134352471</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1210283726554522</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1118174805876642</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5203965204904932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.391290504073879</v>
+      </c>
+      <c r="O4">
+        <v>2.573985154260086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.953642279816336</v>
+        <v>4.160742882798388</v>
       </c>
       <c r="C5">
-        <v>0.3875587482586695</v>
+        <v>1.238485853411987</v>
       </c>
       <c r="D5">
-        <v>0.1514989820487358</v>
+        <v>0.4537178680276099</v>
       </c>
       <c r="E5">
-        <v>0.05134897839262287</v>
+        <v>0.2002743434776875</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.207261513358162</v>
+        <v>0.0008185312706945124</v>
       </c>
       <c r="H5">
-        <v>4.55814729706367</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.116916658669652</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1071500838098309</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4972437635482621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.397503270141314</v>
+      </c>
+      <c r="O5">
+        <v>2.50425329352224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.938117643511021</v>
+        <v>4.131307246768586</v>
       </c>
       <c r="C6">
-        <v>0.3843094767268553</v>
+        <v>1.229426347216076</v>
       </c>
       <c r="D6">
-        <v>0.1503321661066082</v>
+        <v>0.4514612864990966</v>
       </c>
       <c r="E6">
-        <v>0.05107940780240305</v>
+        <v>0.1992070278454818</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.192130491365702</v>
+        <v>0.0008190921253221768</v>
       </c>
       <c r="H6">
-        <v>4.528295652140798</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1162391411635255</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1063796016681273</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4934242224878673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.398571198901138</v>
+      </c>
+      <c r="O6">
+        <v>2.492788074477161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04650991889747</v>
+        <v>4.336578205375588</v>
       </c>
       <c r="C7">
-        <v>0.407004793932515</v>
+        <v>1.292609141201638</v>
       </c>
       <c r="D7">
-        <v>0.1584689089688993</v>
+        <v>0.467233611011892</v>
       </c>
       <c r="E7">
-        <v>0.05295903915618538</v>
+        <v>0.2066654977019553</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.297613372170247</v>
+        <v>0.0008152137542605562</v>
       </c>
       <c r="H7">
-        <v>4.736415146530163</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1209725617435282</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1117542220627179</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5200825547103705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.391371822898535</v>
+      </c>
+      <c r="O7">
+        <v>2.573036936320875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.542895512984899</v>
+        <v>5.269347266540365</v>
       </c>
       <c r="C8">
-        <v>0.5112732337292982</v>
+        <v>1.579924127397476</v>
       </c>
       <c r="D8">
-        <v>0.1954573564110405</v>
+        <v>0.5398492481321568</v>
       </c>
       <c r="E8">
-        <v>0.06149836785897733</v>
+        <v>0.2409681660658691</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.776304745843191</v>
+        <v>0.0007984276182658274</v>
       </c>
       <c r="H8">
-        <v>5.681259350140806</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1427158369542951</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1362263178929375</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6418845068281982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.365280818731179</v>
+      </c>
+      <c r="O8">
+        <v>2.945602739488265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.609076580354611</v>
+        <v>7.233195292430707</v>
       </c>
       <c r="C9">
-        <v>0.7377452148627128</v>
+        <v>2.186315531131413</v>
       </c>
       <c r="D9">
-        <v>0.2736053035445138</v>
+        <v>0.696683048121713</v>
       </c>
       <c r="E9">
-        <v>0.07952056278571362</v>
+        <v>0.3149451216830386</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.784671750637926</v>
+        <v>0.0007663222278622729</v>
       </c>
       <c r="H9">
-        <v>7.673054718822044</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1895295702748996</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1880407136603566</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9019758755094713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.339128181862051</v>
+      </c>
+      <c r="O9">
+        <v>3.764471872166553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.483558581330897</v>
+        <v>8.803459575955912</v>
       </c>
       <c r="C10">
-        <v>0.9266273816168962</v>
+        <v>2.672977512637544</v>
       </c>
       <c r="D10">
-        <v>0.3365637428672272</v>
+        <v>0.8250290889511689</v>
       </c>
       <c r="E10">
-        <v>0.09402719957721928</v>
+        <v>0.3754483739847956</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.595230612891157</v>
+        <v>0.0007427914406929711</v>
       </c>
       <c r="H10">
-        <v>9.27510787701965</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2277950881352098</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2297999452378079</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.113765956655442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.340691998661555</v>
+      </c>
+      <c r="O10">
+        <v>4.44625919244362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.911730728299574</v>
+        <v>9.558671972275192</v>
       </c>
       <c r="C11">
-        <v>1.020250522410606</v>
+        <v>2.907688055547283</v>
       </c>
       <c r="D11">
-        <v>0.3670483263518065</v>
+        <v>0.8875280005082402</v>
       </c>
       <c r="E11">
-        <v>0.1010484456680096</v>
+        <v>0.4049122633572892</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.987323412234502</v>
+        <v>0.0007319721223629843</v>
       </c>
       <c r="H11">
-        <v>10.05029926761921</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2464327492481146</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2500058502248024</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.216958146390503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.34753677418351</v>
+      </c>
+      <c r="O11">
+        <v>4.781517230048195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.079430420303595</v>
+        <v>9.85195955656593</v>
       </c>
       <c r="C12">
-        <v>1.057132973833603</v>
+        <v>2.998960176310447</v>
       </c>
       <c r="D12">
-        <v>0.3789290214712935</v>
+        <v>0.9119233625211223</v>
       </c>
       <c r="E12">
-        <v>0.1037844032641502</v>
+        <v>0.4164142075423669</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.140079632029824</v>
+        <v>0.0007278448782844766</v>
       </c>
       <c r="H12">
-        <v>10.35234154037209</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2537097184245312</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.257876590646994</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.25728348761119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.35118781400098</v>
+      </c>
+      <c r="O12">
+        <v>4.912916297249041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.04304324974612</v>
+        <v>9.788443477583996</v>
       </c>
       <c r="C13">
-        <v>1.049119924049506</v>
+        <v>2.97918782560339</v>
       </c>
       <c r="D13">
-        <v>0.3763539616742975</v>
+        <v>0.9066344453239878</v>
       </c>
       <c r="E13">
-        <v>0.1031914214423857</v>
+        <v>0.413920511615423</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.106973094659509</v>
+        <v>0.0007287353509808836</v>
       </c>
       <c r="H13">
-        <v>10.28687902837652</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2521319507696234</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2561708806706093</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.248538151470683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.35035109781407</v>
+      </c>
+      <c r="O13">
+        <v>4.884404013917873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.92540798173934</v>
+        <v>9.582645112563227</v>
       </c>
       <c r="C14">
-        <v>1.023254026132975</v>
+        <v>2.915145971712377</v>
       </c>
       <c r="D14">
-        <v>0.3680185256220341</v>
+        <v>0.8895195196336658</v>
       </c>
       <c r="E14">
-        <v>0.1012718772194319</v>
+        <v>0.405851195329106</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.99979881290443</v>
+        <v>0.0007316332668288344</v>
       </c>
       <c r="H14">
-        <v>10.07496598545833</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2470267546151206</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2506486838714537</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.220248931653522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.347814750638335</v>
+      </c>
+      <c r="O14">
+        <v>4.792232939404045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.854118311041532</v>
+        <v>9.457587157714784</v>
       </c>
       <c r="C15">
-        <v>1.007607756009122</v>
+        <v>2.876246170284844</v>
       </c>
       <c r="D15">
-        <v>0.3629591607799796</v>
+        <v>0.8791356204447425</v>
       </c>
       <c r="E15">
-        <v>0.1001067166744782</v>
+        <v>0.4009556038223607</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.93474036518711</v>
+        <v>0.0007334039292352934</v>
       </c>
       <c r="H15">
-        <v>9.946331928001996</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2439296682077696</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2472962789775366</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.203092679568961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.346405085654069</v>
+      </c>
+      <c r="O15">
+        <v>4.736382439506201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.456282225799555</v>
+        <v>8.755041812040758</v>
       </c>
       <c r="C16">
-        <v>0.9206893035835719</v>
+        <v>2.657944915123437</v>
       </c>
       <c r="D16">
-        <v>0.334614311056626</v>
+        <v>0.8210383852649841</v>
       </c>
       <c r="E16">
-        <v>0.0935781468753305</v>
+        <v>0.3735671428156166</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.570149667349199</v>
+        <v>0.0007434950974691061</v>
       </c>
       <c r="H16">
-        <v>9.225525877159669</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2266052255011317</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2285073836332288</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.107180865351388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.340382285498393</v>
+      </c>
+      <c r="O16">
+        <v>4.424921383593158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.220751190135388</v>
+        <v>8.335439633042597</v>
       </c>
       <c r="C17">
-        <v>0.8695414851475221</v>
+        <v>2.527741707346649</v>
       </c>
       <c r="D17">
-        <v>0.3177433035052957</v>
+        <v>0.7865388400987285</v>
       </c>
       <c r="E17">
-        <v>0.08969158664938348</v>
+        <v>0.357304199799735</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.353050133739799</v>
+        <v>0.0007496474763894005</v>
       </c>
       <c r="H17">
-        <v>8.796371085823466</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2163194742606436</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2173194395239761</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.050262459461784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.338371699621661</v>
+      </c>
+      <c r="O17">
+        <v>4.240815100571211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.088050690907892</v>
+        <v>8.097842339255067</v>
       </c>
       <c r="C18">
-        <v>0.8408235948305958</v>
+        <v>2.454072315073461</v>
       </c>
       <c r="D18">
-        <v>0.3082079334903938</v>
+        <v>0.7670729908572582</v>
       </c>
       <c r="E18">
-        <v>0.08749466906999359</v>
+        <v>0.3481281413601636</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.230312455363446</v>
+        <v>0.0007531763113056096</v>
       </c>
       <c r="H18">
-        <v>8.553768105132548</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2105161563274578</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2109949732295746</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.018149758460041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.337779843442689</v>
+      </c>
+      <c r="O18">
+        <v>4.137225692427847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.043565208967721</v>
+        <v>8.018001311178693</v>
       </c>
       <c r="C19">
-        <v>0.8312122216273394</v>
+        <v>2.429325946164113</v>
       </c>
       <c r="D19">
-        <v>0.3050064584376173</v>
+        <v>0.7605433419757617</v>
       </c>
       <c r="E19">
-        <v>0.08675701511241485</v>
+        <v>0.345050097367853</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.189097622137609</v>
+        <v>0.0007543697884794316</v>
       </c>
       <c r="H19">
-        <v>8.472306474548503</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2085694905839972</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2088714087682249</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.0073774080251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.337671684585032</v>
+      </c>
+      <c r="O19">
+        <v>4.102525444031556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.245529496894051</v>
+        <v>8.379709952009364</v>
       </c>
       <c r="C20">
-        <v>0.8749116638183239</v>
+        <v>2.541472699627775</v>
       </c>
       <c r="D20">
-        <v>0.3195213650012079</v>
+        <v>0.7901714291495239</v>
       </c>
       <c r="E20">
-        <v>0.09010122460372827</v>
+        <v>0.3590165743453539</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.375934184460533</v>
+        <v>0.0007489936536056986</v>
       </c>
       <c r="H20">
-        <v>8.841605327577867</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2174024635350094</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2184986836665104</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.056255120617379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.338526148111427</v>
+      </c>
+      <c r="O20">
+        <v>4.260169690494791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.959798182060013</v>
+        <v>9.64288173909199</v>
       </c>
       <c r="C21">
-        <v>1.030809625061266</v>
+        <v>2.933887304975315</v>
       </c>
       <c r="D21">
-        <v>0.3704570327904548</v>
+        <v>0.8945255617636008</v>
       </c>
       <c r="E21">
-        <v>0.1018334453997269</v>
+        <v>0.4082113933134934</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.031153754093509</v>
+        <v>0.0007307830238227393</v>
       </c>
       <c r="H21">
-        <v>10.13696240952265</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2485199328016421</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2522643150572534</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.228521795799672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1.348529364051728</v>
+      </c>
+      <c r="O21">
+        <v>4.819177545562695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.459853072804435</v>
+        <v>10.51195198769983</v>
       </c>
       <c r="C22">
-        <v>1.141256728684311</v>
+        <v>3.204611753843722</v>
       </c>
       <c r="D22">
-        <v>0.4057591044699365</v>
+        <v>0.9670626709770147</v>
       </c>
       <c r="E22">
-        <v>0.1099622490946288</v>
+        <v>0.4424149298730384</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.48495248925758</v>
+        <v>0.0007186963230635899</v>
       </c>
       <c r="H22">
-        <v>11.03431588768655</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2701632008798924</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2756407271456425</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.348568755972636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.361357012007531</v>
+      </c>
+      <c r="O22">
+        <v>5.210973383658967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.189431732770799</v>
+        <v>10.04356387844973</v>
       </c>
       <c r="C23">
-        <v>1.081392225070886</v>
+        <v>3.058626048689405</v>
       </c>
       <c r="D23">
-        <v>0.3867042694918865</v>
+        <v>0.9278969490755458</v>
       </c>
       <c r="E23">
-        <v>0.1055748193692416</v>
+        <v>0.4239459357916502</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.240035430031242</v>
+        <v>0.0007251695863329041</v>
       </c>
       <c r="H23">
-        <v>10.54999198210987</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2584753268776154</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2630261076816396</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.28370653913607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1.353864372479407</v>
+      </c>
+      <c r="O23">
+        <v>4.999111951935276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.234318870353718</v>
+        <v>8.359684113310038</v>
       </c>
       <c r="C24">
-        <v>0.8724816870414429</v>
+        <v>2.535261257680304</v>
       </c>
       <c r="D24">
-        <v>0.318716997707412</v>
+        <v>0.7885279980249322</v>
       </c>
       <c r="E24">
-        <v>0.08991591160286205</v>
+        <v>0.3582418734249657</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.365581905432947</v>
+        <v>0.0007492892715739173</v>
       </c>
       <c r="H24">
-        <v>8.821142212309923</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2169125042058937</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2179652153844529</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.053543955967484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.338454577801372</v>
+      </c>
+      <c r="O24">
+        <v>4.251412514335215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.307589534201327</v>
+        <v>6.683333838323961</v>
       </c>
       <c r="C25">
-        <v>0.673308407594476</v>
+        <v>2.01629880671976</v>
       </c>
       <c r="D25">
-        <v>0.2516707458960212</v>
+        <v>0.6523131315290414</v>
       </c>
       <c r="E25">
-        <v>0.07446415742496626</v>
+        <v>0.2940248134766961</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.501951018015774</v>
+        <v>0.0007749610326965861</v>
       </c>
       <c r="H25">
-        <v>7.114445219829236</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1762966216174604</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1734903322747456</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8286382599777724</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.34301840043949</v>
+      </c>
+      <c r="O25">
+        <v>3.531074205078426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.529792198169616</v>
+        <v>0.9450688221880625</v>
       </c>
       <c r="C2">
-        <v>1.660218653150991</v>
+        <v>0.1249190165063681</v>
       </c>
       <c r="D2">
-        <v>0.5603677780548537</v>
+        <v>0.1975105809600279</v>
       </c>
       <c r="E2">
-        <v>0.2506528744008065</v>
+        <v>0.3208724393373217</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007939480032478618</v>
+        <v>0.0008046675779902521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1488488549040881</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9736393568644814</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6168918734447075</v>
       </c>
       <c r="N2">
-        <v>1.359733677901843</v>
+        <v>0.8607257288712624</v>
       </c>
       <c r="O2">
-        <v>3.051707737181445</v>
+        <v>2.224417847606929</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.783570368192045</v>
+        <v>0.8193568486356355</v>
       </c>
       <c r="C3">
-        <v>1.430247172147403</v>
+        <v>0.110549164818778</v>
       </c>
       <c r="D3">
-        <v>0.5018506564377958</v>
+        <v>0.1712582097186441</v>
       </c>
       <c r="E3">
-        <v>0.2230245273987705</v>
+        <v>0.2785740478964271</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008070120918307434</v>
+        <v>0.0008090250087631201</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1313466562125427</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8446132601506804</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5337503248088993</v>
       </c>
       <c r="N3">
-        <v>1.37758659636377</v>
+        <v>0.902333959187505</v>
       </c>
       <c r="O3">
-        <v>2.750042116501675</v>
+        <v>2.122944829180142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.338993349714144</v>
+        <v>0.7425906130862074</v>
       </c>
       <c r="C4">
-        <v>1.293352611565012</v>
+        <v>0.1017375447581088</v>
       </c>
       <c r="D4">
-        <v>0.4674196720506245</v>
+        <v>0.1552980784630478</v>
       </c>
       <c r="E4">
-        <v>0.2067534626806946</v>
+        <v>0.2530726066963922</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008151685671207928</v>
+        <v>0.000811786267750993</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1210283726554522</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7657395481288916</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4832435952637013</v>
       </c>
       <c r="N4">
-        <v>1.391290504073879</v>
+        <v>0.9291539454301301</v>
       </c>
       <c r="O4">
-        <v>2.573985154260086</v>
+        <v>2.064885714168554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.160742882798388</v>
+        <v>0.711396137222323</v>
       </c>
       <c r="C5">
-        <v>1.238485853411987</v>
+        <v>0.09814769922571998</v>
       </c>
       <c r="D5">
-        <v>0.4537178680276099</v>
+        <v>0.1488292793264492</v>
       </c>
       <c r="E5">
-        <v>0.2002743434776875</v>
+        <v>0.2427852181043093</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008185312706945124</v>
+        <v>0.0008129335398211588</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.116916658669652</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7336677921280028</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4627797997505496</v>
       </c>
       <c r="N5">
-        <v>1.397503270141314</v>
+        <v>0.940393561547328</v>
       </c>
       <c r="O5">
-        <v>2.50425329352224</v>
+        <v>2.042231876508907</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.131307246768586</v>
+        <v>0.7062211620278731</v>
       </c>
       <c r="C6">
-        <v>1.229426347216076</v>
+        <v>0.09755161189201544</v>
       </c>
       <c r="D6">
-        <v>0.4514612864990966</v>
+        <v>0.1477571213957418</v>
       </c>
       <c r="E6">
-        <v>0.1992070278454818</v>
+        <v>0.2410829467381035</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008190921253221768</v>
+        <v>0.0008131253876446863</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1162391411635255</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7283460243353659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4593884209262882</v>
       </c>
       <c r="N6">
-        <v>1.398571198901138</v>
+        <v>0.9422783569197541</v>
       </c>
       <c r="O6">
-        <v>2.492788074477161</v>
+        <v>2.038529223130752</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.336578205375588</v>
+        <v>0.7421695780980428</v>
       </c>
       <c r="C7">
-        <v>1.292609141201638</v>
+        <v>0.1016891294246562</v>
       </c>
       <c r="D7">
-        <v>0.467233611011892</v>
+        <v>0.1552107021842914</v>
       </c>
       <c r="E7">
-        <v>0.2066654977019553</v>
+        <v>0.2529334608843286</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008152137542605562</v>
+        <v>0.0008118016504427674</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1209725617435282</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7653067568609231</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4829671585580542</v>
       </c>
       <c r="N7">
-        <v>1.391371822898535</v>
+        <v>0.9293042830147975</v>
       </c>
       <c r="O7">
-        <v>2.573036936320875</v>
+        <v>2.064576203734077</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.269347266540365</v>
+        <v>0.9016249303919324</v>
       </c>
       <c r="C8">
-        <v>1.579924127397476</v>
+        <v>0.1199606899734533</v>
       </c>
       <c r="D8">
-        <v>0.5398492481321568</v>
+        <v>0.1884227509008412</v>
       </c>
       <c r="E8">
-        <v>0.2409681660658691</v>
+        <v>0.3061820064939624</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007984276182658274</v>
+        <v>0.0008061525052873726</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1427158369542951</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9290676822206763</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5881006749153315</v>
       </c>
       <c r="N8">
-        <v>1.365280818731179</v>
+        <v>0.8748021669835246</v>
       </c>
       <c r="O8">
-        <v>2.945602739488265</v>
+        <v>2.188510366369258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.233195292430707</v>
+        <v>1.218520432392523</v>
       </c>
       <c r="C9">
-        <v>2.186315531131413</v>
+        <v>0.1559782004987937</v>
       </c>
       <c r="D9">
-        <v>0.696683048121713</v>
+        <v>0.2550490202475686</v>
       </c>
       <c r="E9">
-        <v>0.3149451216830386</v>
+        <v>0.4149900032303151</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007663222278622729</v>
+        <v>0.0007957327234505866</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1895295702748996</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.25384223113798</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7994653924487523</v>
       </c>
       <c r="N9">
-        <v>1.339128181862051</v>
+        <v>0.7784822611752844</v>
       </c>
       <c r="O9">
-        <v>3.764471872166553</v>
+        <v>2.468220619479894</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.803459575955912</v>
+        <v>1.455208283495494</v>
       </c>
       <c r="C10">
-        <v>2.672977512637544</v>
+        <v>0.1827002819726573</v>
       </c>
       <c r="D10">
-        <v>0.8250290889511689</v>
+        <v>0.3052668927063564</v>
       </c>
       <c r="E10">
-        <v>0.3754483739847956</v>
+        <v>0.4986033598860047</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007427914406929711</v>
+        <v>0.0007884451468227368</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2277950881352098</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.495995139403817</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9592756346166738</v>
       </c>
       <c r="N10">
-        <v>1.340691998661555</v>
+        <v>0.7148390983334281</v>
       </c>
       <c r="O10">
-        <v>4.44625919244362</v>
+        <v>2.700552924955986</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.558671972275192</v>
+        <v>1.564038086851241</v>
       </c>
       <c r="C11">
-        <v>2.907688055547283</v>
+        <v>0.1949491157102017</v>
       </c>
       <c r="D11">
-        <v>0.8875280005082402</v>
+        <v>0.3284727750787084</v>
       </c>
       <c r="E11">
-        <v>0.4049122633572892</v>
+        <v>0.5376831310210974</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007319721223629843</v>
+        <v>0.0007852017463942248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2464327492481146</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.607246530231805</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.033288839298194</v>
       </c>
       <c r="N11">
-        <v>1.34753677418351</v>
+        <v>0.6875992855437971</v>
       </c>
       <c r="O11">
-        <v>4.781517230048195</v>
+        <v>2.813154666265518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.85195955656593</v>
+        <v>1.605443995420302</v>
       </c>
       <c r="C12">
-        <v>2.998960176310447</v>
+        <v>0.199604018748289</v>
       </c>
       <c r="D12">
-        <v>0.9119233625211223</v>
+        <v>0.3373198403890996</v>
       </c>
       <c r="E12">
-        <v>0.4164142075423669</v>
+        <v>0.5526541014744666</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007278448782844766</v>
+        <v>0.0007839831663236256</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2537097184245312</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.649560724846594</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.061534724259324</v>
       </c>
       <c r="N12">
-        <v>1.35118781400098</v>
+        <v>0.6775458036553559</v>
       </c>
       <c r="O12">
-        <v>4.912916297249041</v>
+        <v>2.856886328057641</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.788443477583996</v>
+        <v>1.596517379030104</v>
       </c>
       <c r="C13">
-        <v>2.97918782560339</v>
+        <v>0.1986007127533043</v>
       </c>
       <c r="D13">
-        <v>0.9066344453239878</v>
+        <v>0.3354116942285117</v>
       </c>
       <c r="E13">
-        <v>0.413920511615423</v>
+        <v>0.5494217952182936</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007287353509808836</v>
+        <v>0.0007842451927816407</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2521319507696234</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.64043887057457</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.055441240782613</v>
       </c>
       <c r="N13">
-        <v>1.35035109781407</v>
+        <v>0.679699103455107</v>
       </c>
       <c r="O13">
-        <v>4.884404013917873</v>
+        <v>2.847417727542023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.582645112563227</v>
+        <v>1.567440512348583</v>
       </c>
       <c r="C14">
-        <v>2.915145971712377</v>
+        <v>0.1953317266804788</v>
       </c>
       <c r="D14">
-        <v>0.8895195196336658</v>
+        <v>0.329199390816342</v>
       </c>
       <c r="E14">
-        <v>0.405851195329106</v>
+        <v>0.5389112136557657</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007316332668288344</v>
+        <v>0.0007851013043977971</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2470267546151206</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.610723852128729</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.035608083138854</v>
       </c>
       <c r="N14">
-        <v>1.347814750638335</v>
+        <v>0.6867668424016387</v>
       </c>
       <c r="O14">
-        <v>4.792232939404045</v>
+        <v>2.816730025111241</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.457587157714784</v>
+        <v>1.549656273464734</v>
       </c>
       <c r="C15">
-        <v>2.876246170284844</v>
+        <v>0.1933316313416782</v>
       </c>
       <c r="D15">
-        <v>0.8791356204447425</v>
+        <v>0.3254021575282167</v>
       </c>
       <c r="E15">
-        <v>0.4009556038223607</v>
+        <v>0.5324963140027208</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007334039292352934</v>
+        <v>0.000785626929356524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2439296682077696</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.592547609871446</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.023489106134996</v>
       </c>
       <c r="N15">
-        <v>1.346405085654069</v>
+        <v>0.6911305924231002</v>
       </c>
       <c r="O15">
-        <v>4.736382439506201</v>
+        <v>2.798078151600492</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.755041812040758</v>
+        <v>1.448121645920793</v>
       </c>
       <c r="C16">
-        <v>2.657944915123437</v>
+        <v>0.1819019256462013</v>
       </c>
       <c r="D16">
-        <v>0.8210383852649841</v>
+        <v>0.3037582376018975</v>
       </c>
       <c r="E16">
-        <v>0.3735671428156166</v>
+        <v>0.496072259916204</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007434950974691061</v>
+        <v>0.000788658496548818</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2266052255011317</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.488748993155298</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9544676271225825</v>
       </c>
       <c r="N16">
-        <v>1.340382285498393</v>
+        <v>0.7166550246375962</v>
       </c>
       <c r="O16">
-        <v>4.424921383593158</v>
+        <v>2.693341412576103</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.335439633042597</v>
+        <v>1.38614938245388</v>
       </c>
       <c r="C17">
-        <v>2.527741707346649</v>
+        <v>0.1749161239516042</v>
       </c>
       <c r="D17">
-        <v>0.7865388400987285</v>
+        <v>0.2905781535035601</v>
       </c>
       <c r="E17">
-        <v>0.357304199799735</v>
+        <v>0.4740097690905642</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007496474763894005</v>
+        <v>0.000790536166057735</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2163194742606436</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.425371695035778</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9124821908471645</v>
       </c>
       <c r="N17">
-        <v>1.338371699621661</v>
+        <v>0.7327624878144476</v>
       </c>
       <c r="O17">
-        <v>4.240815100571211</v>
+        <v>2.630926376223186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.097842339255067</v>
+        <v>1.350611906274054</v>
       </c>
       <c r="C18">
-        <v>2.454072315073461</v>
+        <v>0.1709066053435322</v>
       </c>
       <c r="D18">
-        <v>0.7670729908572582</v>
+        <v>0.2830308624453721</v>
       </c>
       <c r="E18">
-        <v>0.3481281413601636</v>
+        <v>0.4614167925770403</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007531763113056096</v>
+        <v>0.0007916229502542071</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2105161563274578</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.389019970934498</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8884551033427499</v>
       </c>
       <c r="N18">
-        <v>1.337779843442689</v>
+        <v>0.7421871946249183</v>
       </c>
       <c r="O18">
-        <v>4.137225692427847</v>
+        <v>2.595671229734876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.018001311178693</v>
+        <v>1.338597153735719</v>
       </c>
       <c r="C19">
-        <v>2.429325946164113</v>
+        <v>0.1695504237801799</v>
       </c>
       <c r="D19">
-        <v>0.7605433419757617</v>
+        <v>0.2804810211342357</v>
       </c>
       <c r="E19">
-        <v>0.345050097367853</v>
+        <v>0.4571690053814805</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007543697884794316</v>
+        <v>0.0007919921046729517</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2085694905839972</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.376728463294199</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8803400070976011</v>
       </c>
       <c r="N19">
-        <v>1.337671684585032</v>
+        <v>0.7454052879039068</v>
       </c>
       <c r="O19">
-        <v>4.102525444031556</v>
+        <v>2.583842257783942</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.379709952009364</v>
+        <v>1.392735133820821</v>
       </c>
       <c r="C20">
-        <v>2.541472699627775</v>
+        <v>0.175658869500694</v>
       </c>
       <c r="D20">
-        <v>0.7901714291495239</v>
+        <v>0.2919776716192501</v>
       </c>
       <c r="E20">
-        <v>0.3590165743453539</v>
+        <v>0.4763481874782016</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007489936536056986</v>
+        <v>0.0007903355861516774</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2174024635350094</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.432107643270086</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9169387974303049</v>
       </c>
       <c r="N20">
-        <v>1.338526148111427</v>
+        <v>0.7310311409199954</v>
       </c>
       <c r="O20">
-        <v>4.260169690494791</v>
+        <v>2.637503194741129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.64288173909199</v>
+        <v>1.575975583968784</v>
       </c>
       <c r="C21">
-        <v>2.933887304975315</v>
+        <v>0.1962914314950552</v>
       </c>
       <c r="D21">
-        <v>0.8945255617636008</v>
+        <v>0.331022417234891</v>
       </c>
       <c r="E21">
-        <v>0.4082113933134934</v>
+        <v>0.5419935622665548</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007307830238227393</v>
+        <v>0.0007848495882262126</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2485199328016421</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.619446596039211</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.041427377700209</v>
       </c>
       <c r="N21">
-        <v>1.348529364051728</v>
+        <v>0.6846836452378184</v>
       </c>
       <c r="O21">
-        <v>4.819177545562695</v>
+        <v>2.825713295100172</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.51195198769983</v>
+        <v>1.696881623598898</v>
       </c>
       <c r="C22">
-        <v>3.204611753843722</v>
+        <v>0.2098740820261753</v>
       </c>
       <c r="D22">
-        <v>0.9670626709770147</v>
+        <v>0.3568911580636325</v>
       </c>
       <c r="E22">
-        <v>0.4424149298730384</v>
+        <v>0.5859128190406366</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007186963230635899</v>
+        <v>0.0007813199140478903</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2701632008798924</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.742980766972181</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.124078276903596</v>
       </c>
       <c r="N22">
-        <v>1.361357012007531</v>
+        <v>0.6559260938504892</v>
       </c>
       <c r="O22">
-        <v>5.210973383658967</v>
+        <v>2.955134920961797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.04356387844973</v>
+        <v>1.6322369997105</v>
       </c>
       <c r="C23">
-        <v>3.058626048689405</v>
+        <v>0.2026146600914984</v>
       </c>
       <c r="D23">
-        <v>0.9278969490755458</v>
+        <v>0.3430497910446633</v>
       </c>
       <c r="E23">
-        <v>0.4239459357916502</v>
+        <v>0.5623714006793961</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007251695863329041</v>
+        <v>0.0007831989101540819</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2584753268776154</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.676937868873011</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.079837363663337</v>
       </c>
       <c r="N23">
-        <v>1.353864372479407</v>
+        <v>0.6711287843298166</v>
       </c>
       <c r="O23">
-        <v>4.999111951935276</v>
+        <v>2.885438651931025</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.359684113310038</v>
+        <v>1.389757433616438</v>
       </c>
       <c r="C24">
-        <v>2.535261257680304</v>
+        <v>0.1753230535693717</v>
       </c>
       <c r="D24">
-        <v>0.7885279980249322</v>
+        <v>0.2913448562391352</v>
       </c>
       <c r="E24">
-        <v>0.3582418734249657</v>
+        <v>0.4752907066009513</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007492892715739173</v>
+        <v>0.0007904262456137929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2169125042058937</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.429062059270251</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9149236223760582</v>
       </c>
       <c r="N24">
-        <v>1.338454577801372</v>
+        <v>0.7318133722127058</v>
       </c>
       <c r="O24">
-        <v>4.251412514335215</v>
+        <v>2.634527866026787</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.683333838323961</v>
+        <v>1.132213097034537</v>
       </c>
       <c r="C25">
-        <v>2.01629880671976</v>
+        <v>0.1462001334439265</v>
       </c>
       <c r="D25">
-        <v>0.6523131315290414</v>
+        <v>0.2368293986502579</v>
       </c>
       <c r="E25">
-        <v>0.2940248134766961</v>
+        <v>0.3849868288529379</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007749610326965861</v>
+        <v>0.0007984844078400266</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1762966216174604</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.165461923763615</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.741596032845905</v>
       </c>
       <c r="N25">
-        <v>1.34301840043949</v>
+        <v>0.8033413510602472</v>
       </c>
       <c r="O25">
-        <v>3.531074205078426</v>
+        <v>2.38818378830058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9450688221880625</v>
+        <v>0.3732701332824604</v>
       </c>
       <c r="C2">
-        <v>0.1249190165063681</v>
+        <v>0.03891874011020491</v>
       </c>
       <c r="D2">
-        <v>0.1975105809600279</v>
+        <v>0.07836328335055498</v>
       </c>
       <c r="E2">
-        <v>0.3208724393373217</v>
+        <v>0.1466134964690013</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008046675779902521</v>
+        <v>0.002454365723921218</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9736393568644814</v>
+        <v>0.335453974968317</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6168918734447075</v>
+        <v>0.2437850966233057</v>
       </c>
       <c r="N2">
-        <v>0.8607257288712624</v>
+        <v>1.751992835625195</v>
       </c>
       <c r="O2">
-        <v>2.224417847606929</v>
+        <v>3.462580261374399</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8193568486356355</v>
+        <v>0.3380857983960652</v>
       </c>
       <c r="C3">
-        <v>0.110549164818778</v>
+        <v>0.03448922674714083</v>
       </c>
       <c r="D3">
-        <v>0.1712582097186441</v>
+        <v>0.07110752184964042</v>
       </c>
       <c r="E3">
-        <v>0.2785740478964271</v>
+        <v>0.1358333083087899</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008090250087631201</v>
+        <v>0.00245719536263713</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8446132601506804</v>
+        <v>0.2985031938573002</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5337503248088993</v>
+        <v>0.2213258291702402</v>
       </c>
       <c r="N3">
-        <v>0.902333959187505</v>
+        <v>1.769541165347839</v>
       </c>
       <c r="O3">
-        <v>2.122944829180142</v>
+        <v>3.458641929997412</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7425906130862074</v>
+        <v>0.3165956454133436</v>
       </c>
       <c r="C4">
-        <v>0.1017375447581088</v>
+        <v>0.03175381070093408</v>
       </c>
       <c r="D4">
-        <v>0.1552980784630478</v>
+        <v>0.06668701277178002</v>
       </c>
       <c r="E4">
-        <v>0.2530726066963922</v>
+        <v>0.1293086494432316</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000811786267750993</v>
+        <v>0.002459025663584168</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7657395481288916</v>
+        <v>0.2758713348815434</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4832435952637013</v>
+        <v>0.2076408884541507</v>
       </c>
       <c r="N4">
-        <v>0.9291539454301301</v>
+        <v>1.78090418464372</v>
       </c>
       <c r="O4">
-        <v>2.064885714168554</v>
+        <v>3.458099837195732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.711396137222323</v>
+        <v>0.3078669564978043</v>
       </c>
       <c r="C5">
-        <v>0.09814769922571998</v>
+        <v>0.03063517925977521</v>
       </c>
       <c r="D5">
-        <v>0.1488292793264492</v>
+        <v>0.06489430411517105</v>
       </c>
       <c r="E5">
-        <v>0.2427852181043093</v>
+        <v>0.1266733206934276</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008129335398211588</v>
+        <v>0.002459794955835244</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7336677921280028</v>
+        <v>0.2666630073685639</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4627797997505496</v>
+        <v>0.2020904797138101</v>
       </c>
       <c r="N5">
-        <v>0.940393561547328</v>
+        <v>1.785682543272582</v>
       </c>
       <c r="O5">
-        <v>2.042231876508907</v>
+        <v>3.458350397188951</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7062211620278731</v>
+        <v>0.3064193069972987</v>
       </c>
       <c r="C6">
-        <v>0.09755161189201544</v>
+        <v>0.03044919461501649</v>
       </c>
       <c r="D6">
-        <v>0.1477571213957418</v>
+        <v>0.0645971505982601</v>
       </c>
       <c r="E6">
-        <v>0.2410829467381035</v>
+        <v>0.1262371406585672</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008131253876446863</v>
+        <v>0.00245992411349876</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7283460243353659</v>
+        <v>0.2651348447281521</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4593884209262882</v>
+        <v>0.2011704244280068</v>
       </c>
       <c r="N6">
-        <v>0.9422783569197541</v>
+        <v>1.78648491241427</v>
       </c>
       <c r="O6">
-        <v>2.038529223130752</v>
+        <v>3.458420469786347</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7421695780980428</v>
+        <v>0.3164778106113033</v>
       </c>
       <c r="C7">
-        <v>0.1016891294246562</v>
+        <v>0.03173874032627566</v>
       </c>
       <c r="D7">
-        <v>0.1552107021842914</v>
+        <v>0.06666280051857143</v>
       </c>
       <c r="E7">
-        <v>0.2529334608843286</v>
+        <v>0.1292730135254843</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008118016504427674</v>
+        <v>0.002459035943553721</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7653067568609231</v>
+        <v>0.2757470897802534</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4829671585580542</v>
+        <v>0.2075659273102133</v>
       </c>
       <c r="N7">
-        <v>0.9293042830147975</v>
+        <v>1.780968028800618</v>
       </c>
       <c r="O7">
-        <v>2.064576203734077</v>
+        <v>3.458101307766299</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9016249303919324</v>
+        <v>0.3611152336411578</v>
       </c>
       <c r="C8">
-        <v>0.1199606899734533</v>
+        <v>0.03739470528937261</v>
       </c>
       <c r="D8">
-        <v>0.1884227509008412</v>
+        <v>0.07585431894106875</v>
       </c>
       <c r="E8">
-        <v>0.3061820064939624</v>
+        <v>0.142876754765112</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008061525052873726</v>
+        <v>0.002455322146807241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9290676822206763</v>
+        <v>0.322701840297924</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5881006749153315</v>
+        <v>0.236019238317219</v>
       </c>
       <c r="N8">
-        <v>0.8748021669835246</v>
+        <v>1.757921350629911</v>
       </c>
       <c r="O8">
-        <v>2.188510366369258</v>
+        <v>3.460832766973823</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.218520432392523</v>
+        <v>0.4495400192301702</v>
       </c>
       <c r="C9">
-        <v>0.1559782004987937</v>
+        <v>0.04836150915005533</v>
       </c>
       <c r="D9">
-        <v>0.2550490202475686</v>
+        <v>0.09415426425395879</v>
       </c>
       <c r="E9">
-        <v>0.4149900032303151</v>
+        <v>0.1703141902321974</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007957327234505866</v>
+        <v>0.002448773189791997</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.25384223113798</v>
+        <v>0.4152190495609034</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7994653924487523</v>
+        <v>0.2926588579753115</v>
       </c>
       <c r="N9">
-        <v>0.7784822611752844</v>
+        <v>1.717397993552328</v>
       </c>
       <c r="O9">
-        <v>2.468220619479894</v>
+        <v>3.481092688501832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455208283495494</v>
+        <v>0.5150462394921362</v>
       </c>
       <c r="C10">
-        <v>0.1827002819726573</v>
+        <v>0.05634348765168795</v>
       </c>
       <c r="D10">
-        <v>0.3052668927063564</v>
+        <v>0.1077701968604714</v>
       </c>
       <c r="E10">
-        <v>0.4986033598860047</v>
+        <v>0.190953906422294</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007884451468227368</v>
+        <v>0.002444404434575298</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.495995139403817</v>
+        <v>0.4834582963297009</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9592756346166738</v>
+        <v>0.3348018616879713</v>
       </c>
       <c r="N10">
-        <v>0.7148390983334281</v>
+        <v>1.690476914967569</v>
       </c>
       <c r="O10">
-        <v>2.700552924955986</v>
+        <v>3.505095318791064</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.564038086851241</v>
+        <v>0.5449639588094897</v>
       </c>
       <c r="C11">
-        <v>0.1949491157102017</v>
+        <v>0.05995851081620174</v>
       </c>
       <c r="D11">
-        <v>0.3284727750787084</v>
+        <v>0.1140022959725115</v>
       </c>
       <c r="E11">
-        <v>0.5376831310210974</v>
+        <v>0.2004519398462463</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007852017463942248</v>
+        <v>0.002442512143381959</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.607246530231805</v>
+        <v>0.5145603013347113</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.033288839298194</v>
+        <v>0.3540925825110648</v>
       </c>
       <c r="N11">
-        <v>0.6875992855437971</v>
+        <v>1.678849816047773</v>
       </c>
       <c r="O11">
-        <v>2.813154666265518</v>
+        <v>3.518001996821681</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.605443995420302</v>
+        <v>0.5563099082238239</v>
       </c>
       <c r="C12">
-        <v>0.199604018748289</v>
+        <v>0.06132511894271886</v>
       </c>
       <c r="D12">
-        <v>0.3373198403890996</v>
+        <v>0.1163677412964574</v>
       </c>
       <c r="E12">
-        <v>0.5526541014744666</v>
+        <v>0.2040645351704882</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007839831663236256</v>
+        <v>0.002441809180234773</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.649560724846594</v>
+        <v>0.5263462557820446</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.061534724259324</v>
+        <v>0.3614148866847557</v>
       </c>
       <c r="N12">
-        <v>0.6775458036553559</v>
+        <v>1.674536119236336</v>
       </c>
       <c r="O12">
-        <v>2.856886328057641</v>
+        <v>3.523175733068882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.596517379030104</v>
+        <v>0.5538656144162815</v>
       </c>
       <c r="C13">
-        <v>0.1986007127533043</v>
+        <v>0.0610308990370072</v>
       </c>
       <c r="D13">
-        <v>0.3354116942285117</v>
+        <v>0.1158580564013505</v>
       </c>
       <c r="E13">
-        <v>0.5494217952182936</v>
+        <v>0.2032857874220895</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007842451927816407</v>
+        <v>0.002441959971659774</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.64043887057457</v>
+        <v>0.523807574829334</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.055441240782613</v>
+        <v>0.3598371249332644</v>
       </c>
       <c r="N13">
-        <v>0.679699103455107</v>
+        <v>1.675461179785067</v>
       </c>
       <c r="O13">
-        <v>2.847417727542023</v>
+        <v>3.52204873830479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.567440512348583</v>
+        <v>0.5458970627380495</v>
       </c>
       <c r="C14">
-        <v>0.1953317266804788</v>
+        <v>0.06007098914895437</v>
       </c>
       <c r="D14">
-        <v>0.329199390816342</v>
+        <v>0.1141967926650835</v>
       </c>
       <c r="E14">
-        <v>0.5389112136557657</v>
+        <v>0.2007488303161793</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007851013043977971</v>
+        <v>0.002442454037741459</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.610723852128729</v>
+        <v>0.5155297741240474</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.035608083138854</v>
+        <v>0.3546946449362096</v>
       </c>
       <c r="N14">
-        <v>0.6867668424016387</v>
+        <v>1.678493136325272</v>
       </c>
       <c r="O14">
-        <v>2.816730025111241</v>
+        <v>3.518421903777522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.549656273464734</v>
+        <v>0.5410182683533264</v>
       </c>
       <c r="C15">
-        <v>0.1933316313416782</v>
+        <v>0.0594827135751359</v>
       </c>
       <c r="D15">
-        <v>0.3254021575282167</v>
+        <v>0.1131799349057019</v>
       </c>
       <c r="E15">
-        <v>0.5324963140027208</v>
+        <v>0.199196947922438</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000785626929356524</v>
+        <v>0.002442758437553748</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.592547609871446</v>
+        <v>0.5104604549596559</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.023489106134996</v>
+        <v>0.3515469874953965</v>
       </c>
       <c r="N15">
-        <v>0.6911305924231002</v>
+        <v>1.680361922829022</v>
       </c>
       <c r="O15">
-        <v>2.798078151600492</v>
+        <v>3.5162376545764</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448121645920793</v>
+        <v>0.5130934074793458</v>
       </c>
       <c r="C16">
-        <v>0.1819019256462013</v>
+        <v>0.05610691340135077</v>
       </c>
       <c r="D16">
-        <v>0.3037582376018975</v>
+        <v>0.1073636820494954</v>
       </c>
       <c r="E16">
-        <v>0.496072259916204</v>
+        <v>0.1903353993311967</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000788658496548818</v>
+        <v>0.002444530008083312</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.488748993155298</v>
+        <v>0.4814268835825999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9544676271225825</v>
+        <v>0.3335435858017632</v>
       </c>
       <c r="N16">
-        <v>0.7166550246375962</v>
+        <v>1.691249251377961</v>
       </c>
       <c r="O16">
-        <v>2.693341412576103</v>
+        <v>3.504291871677282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.38614938245388</v>
+        <v>0.4959925770815232</v>
       </c>
       <c r="C17">
-        <v>0.1749161239516042</v>
+        <v>0.05403185282278855</v>
       </c>
       <c r="D17">
-        <v>0.2905781535035601</v>
+        <v>0.103805368615113</v>
       </c>
       <c r="E17">
-        <v>0.4740097690905642</v>
+        <v>0.1849271898260625</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000790536166057735</v>
+        <v>0.00244564111388796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.425371695035778</v>
+        <v>0.4636308050601201</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9124821908471645</v>
+        <v>0.322529814587547</v>
       </c>
       <c r="N17">
-        <v>0.7327624878144476</v>
+        <v>1.698087039218429</v>
       </c>
       <c r="O17">
-        <v>2.630926376223186</v>
+        <v>3.497472931848307</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.350611906274054</v>
+        <v>0.486167813767338</v>
       </c>
       <c r="C18">
-        <v>0.1709066053435322</v>
+        <v>0.05283682622768993</v>
       </c>
       <c r="D18">
-        <v>0.2830308624453721</v>
+        <v>0.1017623110967634</v>
       </c>
       <c r="E18">
-        <v>0.4614167925770403</v>
+        <v>0.1818267691371815</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007916229502542071</v>
+        <v>0.002446289145531025</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.389019970934498</v>
+        <v>0.4534006003723903</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8884551033427499</v>
+        <v>0.3162062401805201</v>
       </c>
       <c r="N18">
-        <v>0.7421871946249183</v>
+        <v>1.702078248322522</v>
       </c>
       <c r="O18">
-        <v>2.595671229734876</v>
+        <v>3.493737930178355</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.338597153735719</v>
+        <v>0.4828432473217674</v>
       </c>
       <c r="C19">
-        <v>0.1695504237801799</v>
+        <v>0.05243195257726541</v>
       </c>
       <c r="D19">
-        <v>0.2804810211342357</v>
+        <v>0.1010711835564138</v>
       </c>
       <c r="E19">
-        <v>0.4571690053814805</v>
+        <v>0.180778771318252</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007919921046729517</v>
+        <v>0.002446510097713573</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.376728463294199</v>
+        <v>0.449937803997102</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8803400070976011</v>
+        <v>0.3140671160169433</v>
       </c>
       <c r="N19">
-        <v>0.7454052879039068</v>
+        <v>1.703439610471303</v>
       </c>
       <c r="O19">
-        <v>2.583842257783942</v>
+        <v>3.492505439888333</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.392735133820821</v>
+        <v>0.4978118345303244</v>
       </c>
       <c r="C20">
-        <v>0.175658869500694</v>
+        <v>0.05425290263448801</v>
       </c>
       <c r="D20">
-        <v>0.2919776716192501</v>
+        <v>0.1041837855780017</v>
       </c>
       <c r="E20">
-        <v>0.4763481874782016</v>
+        <v>0.1855018416413117</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007903355861516774</v>
+        <v>0.0024455219084971</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.432107643270086</v>
+        <v>0.4655246474098931</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9169387974303049</v>
+        <v>0.3237010835652825</v>
       </c>
       <c r="N20">
-        <v>0.7310311409199954</v>
+        <v>1.697353110629493</v>
       </c>
       <c r="O20">
-        <v>2.637503194741129</v>
+        <v>3.498179455324532</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.575975583968784</v>
+        <v>0.5482371670800887</v>
       </c>
       <c r="C21">
-        <v>0.1962914314950552</v>
+        <v>0.0603530011408111</v>
       </c>
       <c r="D21">
-        <v>0.331022417234891</v>
+        <v>0.1146845972470061</v>
       </c>
       <c r="E21">
-        <v>0.5419935622665548</v>
+        <v>0.2014935628349193</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007848495882262126</v>
+        <v>0.002442308549949962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.619446596039211</v>
+        <v>0.5179609417700988</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.041427377700209</v>
+        <v>0.3562046447610001</v>
       </c>
       <c r="N21">
-        <v>0.6846836452378184</v>
+        <v>1.677600154145132</v>
       </c>
       <c r="O21">
-        <v>2.825713295100172</v>
+        <v>3.519479420689976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.696881623598898</v>
+        <v>0.5812905796811378</v>
       </c>
       <c r="C22">
-        <v>0.2098740820261753</v>
+        <v>0.06432622091030282</v>
       </c>
       <c r="D22">
-        <v>0.3568911580636325</v>
+        <v>0.1215794529504421</v>
       </c>
       <c r="E22">
-        <v>0.5859128190406366</v>
+        <v>0.2120378409926573</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007813199140478903</v>
+        <v>0.002440287713619623</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.742980766972181</v>
+        <v>0.5522793438718736</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.124078276903596</v>
+        <v>0.3775486511713808</v>
       </c>
       <c r="N22">
-        <v>0.6559260938504892</v>
+        <v>1.665210650763548</v>
       </c>
       <c r="O22">
-        <v>2.955134920961797</v>
+        <v>3.535068903440589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6322369997105</v>
+        <v>0.5636405244632385</v>
       </c>
       <c r="C23">
-        <v>0.2026146600914984</v>
+        <v>0.06220688462860835</v>
       </c>
       <c r="D23">
-        <v>0.3430497910446633</v>
+        <v>0.1178966138169102</v>
       </c>
       <c r="E23">
-        <v>0.5623714006793961</v>
+        <v>0.206401596170096</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007831989101540819</v>
+        <v>0.002441359039338815</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.676937868873011</v>
+        <v>0.5339586422984155</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.079837363663337</v>
+        <v>0.3661476673412096</v>
       </c>
       <c r="N23">
-        <v>0.6711287843298166</v>
+        <v>1.671775510537778</v>
       </c>
       <c r="O23">
-        <v>2.885438651931025</v>
+        <v>3.526595675282124</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.389757433616438</v>
+        <v>0.4969893272480022</v>
       </c>
       <c r="C24">
-        <v>0.1753230535693717</v>
+        <v>0.05415297238778294</v>
       </c>
       <c r="D24">
-        <v>0.2913448562391352</v>
+        <v>0.1040126949712885</v>
       </c>
       <c r="E24">
-        <v>0.4752907066009513</v>
+        <v>0.185242014068983</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007904262456137929</v>
+        <v>0.002445575772563435</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.429062059270251</v>
+        <v>0.4646684381566502</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9149236223760582</v>
+        <v>0.3231715267417457</v>
       </c>
       <c r="N24">
-        <v>0.7318133722127058</v>
+        <v>1.697684732620225</v>
       </c>
       <c r="O24">
-        <v>2.634527866026787</v>
+        <v>3.497859458885443</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132213097034537</v>
+        <v>0.4255236620645917</v>
       </c>
       <c r="C25">
-        <v>0.1462001334439265</v>
+        <v>0.04540796978729134</v>
       </c>
       <c r="D25">
-        <v>0.2368293986502579</v>
+        <v>0.08917384139320461</v>
       </c>
       <c r="E25">
-        <v>0.3849868288529379</v>
+        <v>0.1628083795135993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007984844078400266</v>
+        <v>0.002450466773947598</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.165461923763615</v>
+        <v>0.3901437730634711</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.741596032845905</v>
+        <v>0.2772444527322122</v>
       </c>
       <c r="N25">
-        <v>0.8033413510602472</v>
+        <v>1.727860180713751</v>
       </c>
       <c r="O25">
-        <v>2.38818378830058</v>
+        <v>3.474013014783594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3732701332824604</v>
+        <v>0.9450688221880341</v>
       </c>
       <c r="C2">
-        <v>0.03891874011020491</v>
+        <v>0.1249190165063681</v>
       </c>
       <c r="D2">
-        <v>0.07836328335055498</v>
+        <v>0.1975105809601558</v>
       </c>
       <c r="E2">
-        <v>0.1466134964690013</v>
+        <v>0.3208724393373572</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002454365723921218</v>
+        <v>0.0008046675780184867</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.335453974968317</v>
+        <v>0.9736393568645667</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2437850966233057</v>
+        <v>0.6168918734447217</v>
       </c>
       <c r="N2">
-        <v>1.751992835625195</v>
+        <v>0.8607257288712375</v>
       </c>
       <c r="O2">
-        <v>3.462580261374399</v>
+        <v>2.224417847606929</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3380857983960652</v>
+        <v>0.8193568486356639</v>
       </c>
       <c r="C3">
-        <v>0.03448922674714083</v>
+        <v>0.1105491648189911</v>
       </c>
       <c r="D3">
-        <v>0.07110752184964042</v>
+        <v>0.1712582097184168</v>
       </c>
       <c r="E3">
-        <v>0.1358333083087899</v>
+        <v>0.2785740478964271</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00245719536263713</v>
+        <v>0.0008090250087643442</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2985031938573002</v>
+        <v>0.8446132601506235</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2213258291702402</v>
+        <v>0.5337503248088993</v>
       </c>
       <c r="N3">
-        <v>1.769541165347839</v>
+        <v>0.9023339591874517</v>
       </c>
       <c r="O3">
-        <v>3.458641929997412</v>
+        <v>2.12294482918017</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3165956454133436</v>
+        <v>0.7425906130863495</v>
       </c>
       <c r="C4">
-        <v>0.03175381070093408</v>
+        <v>0.1017375447582083</v>
       </c>
       <c r="D4">
-        <v>0.06668701277178002</v>
+        <v>0.1552980784628772</v>
       </c>
       <c r="E4">
-        <v>0.1293086494432316</v>
+        <v>0.2530726066963567</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002459025663584168</v>
+        <v>0.0008117862677565111</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2758713348815434</v>
+        <v>0.7657395481289484</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2076408884541507</v>
+        <v>0.4832435952637013</v>
       </c>
       <c r="N4">
-        <v>1.78090418464372</v>
+        <v>0.9291539454301798</v>
       </c>
       <c r="O4">
-        <v>3.458099837195732</v>
+        <v>2.064885714168639</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3078669564978043</v>
+        <v>0.7113961372222946</v>
       </c>
       <c r="C5">
-        <v>0.03063517925977521</v>
+        <v>0.09814769922603261</v>
       </c>
       <c r="D5">
-        <v>0.06489430411517105</v>
+        <v>0.1488292793263923</v>
       </c>
       <c r="E5">
-        <v>0.1266733206934276</v>
+        <v>0.2427852181043164</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002459794955835244</v>
+        <v>0.0008129335397679603</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2666630073685639</v>
+        <v>0.733667792127946</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2020904797138101</v>
+        <v>0.4627797997505567</v>
       </c>
       <c r="N5">
-        <v>1.785682543272582</v>
+        <v>0.9403935615473422</v>
       </c>
       <c r="O5">
-        <v>3.458350397188951</v>
+        <v>2.042231876508879</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3064193069972987</v>
+        <v>0.7062211620277594</v>
       </c>
       <c r="C6">
-        <v>0.03044919461501649</v>
+        <v>0.09755161189201544</v>
       </c>
       <c r="D6">
-        <v>0.0645971505982601</v>
+        <v>0.1477571213958839</v>
       </c>
       <c r="E6">
-        <v>0.1262371406585672</v>
+        <v>0.2410829467381106</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00245992411349876</v>
+        <v>0.0008131253876204948</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2651348447281521</v>
+        <v>0.7283460243353375</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2011704244280068</v>
+        <v>0.4593884209262811</v>
       </c>
       <c r="N6">
-        <v>1.78648491241427</v>
+        <v>0.9422783569197577</v>
       </c>
       <c r="O6">
-        <v>3.458420469786347</v>
+        <v>2.038529223130723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3164778106113033</v>
+        <v>0.7421695780980428</v>
       </c>
       <c r="C7">
-        <v>0.03173874032627566</v>
+        <v>0.101689129424642</v>
       </c>
       <c r="D7">
-        <v>0.06666280051857143</v>
+        <v>0.1552107021842346</v>
       </c>
       <c r="E7">
-        <v>0.1292730135254843</v>
+        <v>0.2529334608843286</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002459035943553721</v>
+        <v>0.0008118016503845293</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2757470897802534</v>
+        <v>0.7653067568609231</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2075659273102133</v>
+        <v>0.4829671585580471</v>
       </c>
       <c r="N7">
-        <v>1.780968028800618</v>
+        <v>0.9293042830148011</v>
       </c>
       <c r="O7">
-        <v>3.458101307766299</v>
+        <v>2.064576203734077</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3611152336411578</v>
+        <v>0.9016249303918471</v>
       </c>
       <c r="C8">
-        <v>0.03739470528937261</v>
+        <v>0.1199606899737091</v>
       </c>
       <c r="D8">
-        <v>0.07585431894106875</v>
+        <v>0.1884227509008127</v>
       </c>
       <c r="E8">
-        <v>0.142876754765112</v>
+        <v>0.3061820064939624</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002455322146807241</v>
+        <v>0.0008061525052863741</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.322701840297924</v>
+        <v>0.9290676822206478</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.236019238317219</v>
+        <v>0.5881006749153386</v>
       </c>
       <c r="N8">
-        <v>1.757921350629911</v>
+        <v>0.8748021669835033</v>
       </c>
       <c r="O8">
-        <v>3.460832766973823</v>
+        <v>2.188510366369258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4495400192301702</v>
+        <v>1.218520432392751</v>
       </c>
       <c r="C9">
-        <v>0.04836150915005533</v>
+        <v>0.1559782004990637</v>
       </c>
       <c r="D9">
-        <v>0.09415426425395879</v>
+        <v>0.255049020247327</v>
       </c>
       <c r="E9">
-        <v>0.1703141902321974</v>
+        <v>0.4149900032303364</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002448773189791997</v>
+        <v>0.0007957327234781097</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4152190495609034</v>
+        <v>1.253842231138009</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2926588579753115</v>
+        <v>0.7994653924487523</v>
       </c>
       <c r="N9">
-        <v>1.717397993552328</v>
+        <v>0.778482261175256</v>
       </c>
       <c r="O9">
-        <v>3.481092688501832</v>
+        <v>2.468220619479894</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5150462394921362</v>
+        <v>1.455208283495438</v>
       </c>
       <c r="C10">
-        <v>0.05634348765168795</v>
+        <v>0.182700281972771</v>
       </c>
       <c r="D10">
-        <v>0.1077701968604714</v>
+        <v>0.3052668927063422</v>
       </c>
       <c r="E10">
-        <v>0.190953906422294</v>
+        <v>0.4986033598859905</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002444404434575298</v>
+        <v>0.0007884451468239714</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4834582963297009</v>
+        <v>1.49599513940376</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3348018616879713</v>
+        <v>0.9592756346166809</v>
       </c>
       <c r="N10">
-        <v>1.690476914967569</v>
+        <v>0.7148390983333854</v>
       </c>
       <c r="O10">
-        <v>3.505095318791064</v>
+        <v>2.700552924955957</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5449639588094897</v>
+        <v>1.564038086851241</v>
       </c>
       <c r="C11">
-        <v>0.05995851081620174</v>
+        <v>0.1949491157099743</v>
       </c>
       <c r="D11">
-        <v>0.1140022959725115</v>
+        <v>0.3284727750786516</v>
       </c>
       <c r="E11">
-        <v>0.2004519398462463</v>
+        <v>0.5376831310210832</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002442512143381959</v>
+        <v>0.0007852017463950143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5145603013347113</v>
+        <v>1.607246530232004</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3540925825110648</v>
+        <v>1.033288839298187</v>
       </c>
       <c r="N11">
-        <v>1.678849816047773</v>
+        <v>0.68759928554379</v>
       </c>
       <c r="O11">
-        <v>3.518001996821681</v>
+        <v>2.813154666265604</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5563099082238239</v>
+        <v>1.605443995420302</v>
       </c>
       <c r="C12">
-        <v>0.06132511894271886</v>
+        <v>0.1996040187480475</v>
       </c>
       <c r="D12">
-        <v>0.1163677412964574</v>
+        <v>0.3373198403890854</v>
       </c>
       <c r="E12">
-        <v>0.2040645351704882</v>
+        <v>0.5526541014744595</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002441809180234773</v>
+        <v>0.0007839831662944267</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5263462557820446</v>
+        <v>1.649560724846651</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3614148866847557</v>
+        <v>1.061534724259296</v>
       </c>
       <c r="N12">
-        <v>1.674536119236336</v>
+        <v>0.6775458036553488</v>
       </c>
       <c r="O12">
-        <v>3.523175733068882</v>
+        <v>2.856886328057669</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5538656144162815</v>
+        <v>1.596517379030161</v>
       </c>
       <c r="C13">
-        <v>0.0610308990370072</v>
+        <v>0.1986007127531622</v>
       </c>
       <c r="D13">
-        <v>0.1158580564013505</v>
+        <v>0.335411694228398</v>
       </c>
       <c r="E13">
-        <v>0.2032857874220895</v>
+        <v>0.5494217952182936</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002441959971659774</v>
+        <v>0.0007842451928391848</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.523807574829334</v>
+        <v>1.640438870574627</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3598371249332644</v>
+        <v>1.055441240782628</v>
       </c>
       <c r="N13">
-        <v>1.675461179785067</v>
+        <v>0.6796991034550928</v>
       </c>
       <c r="O13">
-        <v>3.52204873830479</v>
+        <v>2.84741772754208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5458970627380495</v>
+        <v>1.567440512348611</v>
       </c>
       <c r="C14">
-        <v>0.06007098914895437</v>
+        <v>0.195331726680493</v>
       </c>
       <c r="D14">
-        <v>0.1141967926650835</v>
+        <v>0.3291993908162851</v>
       </c>
       <c r="E14">
-        <v>0.2007488303161793</v>
+        <v>0.5389112136557515</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002442454037741459</v>
+        <v>0.0007851013043031037</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5155297741240474</v>
+        <v>1.610723852128729</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3546946449362096</v>
+        <v>1.035608083138847</v>
       </c>
       <c r="N14">
-        <v>1.678493136325272</v>
+        <v>0.6867668424015605</v>
       </c>
       <c r="O14">
-        <v>3.518421903777522</v>
+        <v>2.816730025111212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5410182683533264</v>
+        <v>1.549656273464763</v>
       </c>
       <c r="C15">
-        <v>0.0594827135751359</v>
+        <v>0.193331631341664</v>
       </c>
       <c r="D15">
-        <v>0.1131799349057019</v>
+        <v>0.325402157528444</v>
       </c>
       <c r="E15">
-        <v>0.199196947922438</v>
+        <v>0.5324963140026924</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002442758437553748</v>
+        <v>0.0007856269293886849</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5104604549596559</v>
+        <v>1.59254760987136</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3515469874953965</v>
+        <v>1.023489106134953</v>
       </c>
       <c r="N15">
-        <v>1.680361922829022</v>
+        <v>0.6911305924231002</v>
       </c>
       <c r="O15">
-        <v>3.5162376545764</v>
+        <v>2.798078151600407</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5130934074793458</v>
+        <v>1.448121645920992</v>
       </c>
       <c r="C16">
-        <v>0.05610691340135077</v>
+        <v>0.1819019256460734</v>
       </c>
       <c r="D16">
-        <v>0.1073636820494954</v>
+        <v>0.3037582376018975</v>
       </c>
       <c r="E16">
-        <v>0.1903353993311967</v>
+        <v>0.4960722599162111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002444530008083312</v>
+        <v>0.0007886584965186016</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4814268835825999</v>
+        <v>1.488748993155298</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3335435858017632</v>
+        <v>0.9544676271225967</v>
       </c>
       <c r="N16">
-        <v>1.691249251377961</v>
+        <v>0.7166550246376389</v>
       </c>
       <c r="O16">
-        <v>3.504291871677282</v>
+        <v>2.693341412576075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4959925770815232</v>
+        <v>1.386149382453794</v>
       </c>
       <c r="C17">
-        <v>0.05403185282278855</v>
+        <v>0.1749161239515047</v>
       </c>
       <c r="D17">
-        <v>0.103805368615113</v>
+        <v>0.2905781535034464</v>
       </c>
       <c r="E17">
-        <v>0.1849271898260625</v>
+        <v>0.4740097690905642</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00244564111388796</v>
+        <v>0.0007905361661179366</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4636308050601201</v>
+        <v>1.425371695035722</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.322529814587547</v>
+        <v>0.9124821908471503</v>
       </c>
       <c r="N17">
-        <v>1.698087039218429</v>
+        <v>0.7327624878143908</v>
       </c>
       <c r="O17">
-        <v>3.497472931848307</v>
+        <v>2.630926376223215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.486167813767338</v>
+        <v>1.350611906274111</v>
       </c>
       <c r="C18">
-        <v>0.05283682622768993</v>
+        <v>0.1709066053429353</v>
       </c>
       <c r="D18">
-        <v>0.1017623110967634</v>
+        <v>0.2830308624453579</v>
       </c>
       <c r="E18">
-        <v>0.1818267691371815</v>
+        <v>0.4614167925770332</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002446289145531025</v>
+        <v>0.0007916229502863069</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4534006003723903</v>
+        <v>1.389019970934442</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3162062401805201</v>
+        <v>0.8884551033427712</v>
       </c>
       <c r="N18">
-        <v>1.702078248322522</v>
+        <v>0.7421871946249183</v>
       </c>
       <c r="O18">
-        <v>3.493737930178355</v>
+        <v>2.595671229734819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4828432473217674</v>
+        <v>1.338597153735975</v>
       </c>
       <c r="C19">
-        <v>0.05243195257726541</v>
+        <v>0.1695504237802936</v>
       </c>
       <c r="D19">
-        <v>0.1010711835564138</v>
+        <v>0.2804810211339941</v>
       </c>
       <c r="E19">
-        <v>0.180778771318252</v>
+        <v>0.4571690053814805</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002446510097713573</v>
+        <v>0.0007919921046142808</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.449937803997102</v>
+        <v>1.376728463294143</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3140671160169433</v>
+        <v>0.8803400070975798</v>
       </c>
       <c r="N19">
-        <v>1.703439610471303</v>
+        <v>0.7454052879038429</v>
       </c>
       <c r="O19">
-        <v>3.492505439888333</v>
+        <v>2.583842257783857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4978118345303244</v>
+        <v>1.392735133820906</v>
       </c>
       <c r="C20">
-        <v>0.05425290263448801</v>
+        <v>0.1756588695009356</v>
       </c>
       <c r="D20">
-        <v>0.1041837855780017</v>
+        <v>0.2919776716193638</v>
       </c>
       <c r="E20">
-        <v>0.1855018416413117</v>
+        <v>0.4763481874782087</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0024455219084971</v>
+        <v>0.0007903355862699998</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4655246474098931</v>
+        <v>1.432107643270058</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3237010835652825</v>
+        <v>0.916938797430312</v>
       </c>
       <c r="N20">
-        <v>1.697353110629493</v>
+        <v>0.7310311409200452</v>
       </c>
       <c r="O20">
-        <v>3.498179455324532</v>
+        <v>2.6375031947411</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5482371670800887</v>
+        <v>1.575975583968756</v>
       </c>
       <c r="C21">
-        <v>0.0603530011408111</v>
+        <v>0.1962914314952968</v>
       </c>
       <c r="D21">
-        <v>0.1146845972470061</v>
+        <v>0.3310224172346636</v>
       </c>
       <c r="E21">
-        <v>0.2014935628349193</v>
+        <v>0.5419935622665548</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002442308549949962</v>
+        <v>0.0007848495881970167</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5179609417700988</v>
+        <v>1.619446596039239</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3562046447610001</v>
+        <v>1.041427377700209</v>
       </c>
       <c r="N21">
-        <v>1.677600154145132</v>
+        <v>0.6846836452378042</v>
       </c>
       <c r="O21">
-        <v>3.519479420689976</v>
+        <v>2.825713295100229</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5812905796811378</v>
+        <v>1.696881623598841</v>
       </c>
       <c r="C22">
-        <v>0.06432622091030282</v>
+        <v>0.2098740820261753</v>
       </c>
       <c r="D22">
-        <v>0.1215794529504421</v>
+        <v>0.3568911580635614</v>
       </c>
       <c r="E22">
-        <v>0.2120378409926573</v>
+        <v>0.5859128190406295</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002440287713619623</v>
+        <v>0.000781319914047198</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5522793438718736</v>
+        <v>1.742980766972181</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3775486511713808</v>
+        <v>1.124078276903575</v>
       </c>
       <c r="N22">
-        <v>1.665210650763548</v>
+        <v>0.6559260938504821</v>
       </c>
       <c r="O22">
-        <v>3.535068903440589</v>
+        <v>2.955134920961797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5636405244632385</v>
+        <v>1.632236999710443</v>
       </c>
       <c r="C23">
-        <v>0.06220688462860835</v>
+        <v>0.20261466009174</v>
       </c>
       <c r="D23">
-        <v>0.1178966138169102</v>
+        <v>0.3430497910447201</v>
       </c>
       <c r="E23">
-        <v>0.206401596170096</v>
+        <v>0.5623714006794032</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002441359039338815</v>
+        <v>0.0007831989101244607</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5339586422984155</v>
+        <v>1.676937868873068</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3661476673412096</v>
+        <v>1.079837363663366</v>
       </c>
       <c r="N23">
-        <v>1.671775510537778</v>
+        <v>0.6711287843298166</v>
       </c>
       <c r="O23">
-        <v>3.526595675282124</v>
+        <v>2.885438651931111</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4969893272480022</v>
+        <v>1.389757433616523</v>
       </c>
       <c r="C24">
-        <v>0.05415297238778294</v>
+        <v>0.1753230535690307</v>
       </c>
       <c r="D24">
-        <v>0.1040126949712885</v>
+        <v>0.2913448562392347</v>
       </c>
       <c r="E24">
-        <v>0.185242014068983</v>
+        <v>0.47529070660093</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002445575772563435</v>
+        <v>0.000790426245645233</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4646684381566502</v>
+        <v>1.429062059270308</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3231715267417457</v>
+        <v>0.9149236223760582</v>
       </c>
       <c r="N24">
-        <v>1.697684732620225</v>
+        <v>0.7318133722127627</v>
       </c>
       <c r="O24">
-        <v>3.497859458885443</v>
+        <v>2.634527866026758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4255236620645917</v>
+        <v>1.132213097034651</v>
       </c>
       <c r="C25">
-        <v>0.04540796978729134</v>
+        <v>0.1462001334434859</v>
       </c>
       <c r="D25">
-        <v>0.08917384139320461</v>
+        <v>0.2368293986500589</v>
       </c>
       <c r="E25">
-        <v>0.1628083795135993</v>
+        <v>0.3849868288529521</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002450466773947598</v>
+        <v>0.0007984844078687438</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3901437730634711</v>
+        <v>1.165461923763559</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2772444527322122</v>
+        <v>0.7415960328458979</v>
       </c>
       <c r="N25">
-        <v>1.727860180713751</v>
+        <v>0.8033413510602436</v>
       </c>
       <c r="O25">
-        <v>3.474013014783594</v>
+        <v>2.388183788300552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9450688221880341</v>
+        <v>2.348881573288338</v>
       </c>
       <c r="C2">
-        <v>0.1249190165063681</v>
+        <v>0.6981959232398367</v>
       </c>
       <c r="D2">
-        <v>0.1975105809601558</v>
+        <v>0.6093481636773674</v>
       </c>
       <c r="E2">
-        <v>0.3208724393373572</v>
+        <v>0.2908904182498873</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008046675780184867</v>
+        <v>0.5025897049928005</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004884016939457059</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002189203410447149</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3698433386989137</v>
       </c>
       <c r="K2">
-        <v>0.9736393568645667</v>
+        <v>0.2542604019062722</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1872754870104032</v>
       </c>
       <c r="M2">
-        <v>0.6168918734447217</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8607257288712375</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.224417847606929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8314385453030653</v>
+      </c>
+      <c r="Q2">
+        <v>1.788695587036642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8193568486356639</v>
+        <v>2.046187874422742</v>
       </c>
       <c r="C3">
-        <v>0.1105491648189911</v>
+        <v>0.610669606176117</v>
       </c>
       <c r="D3">
-        <v>0.1712582097184168</v>
+        <v>0.5495075383176697</v>
       </c>
       <c r="E3">
-        <v>0.2785740478964271</v>
+        <v>0.2606757218741365</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008090250087643442</v>
+        <v>0.4643108428883664</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.878271910395803E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001288116748309864</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.355941760238025</v>
       </c>
       <c r="K3">
-        <v>0.8446132601506235</v>
+        <v>0.2529826521238192</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1663067758900141</v>
       </c>
       <c r="M3">
-        <v>0.5337503248088993</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9023339591874517</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.12294482918017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8268919016581719</v>
+      </c>
+      <c r="Q3">
+        <v>1.678137531292919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7425906130863495</v>
+        <v>1.859593300258069</v>
       </c>
       <c r="C4">
-        <v>0.1017375447582083</v>
+        <v>0.5571971712775223</v>
       </c>
       <c r="D4">
-        <v>0.1552980784628772</v>
+        <v>0.51293957488096</v>
       </c>
       <c r="E4">
-        <v>0.2530726066963567</v>
+        <v>0.2421331257903958</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008117862677565111</v>
+        <v>0.4412001579743077</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.506624379166155E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008973739074558118</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3476777520883445</v>
       </c>
       <c r="K4">
-        <v>0.7657395481289484</v>
+        <v>0.252436520628283</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1534259760893733</v>
       </c>
       <c r="M4">
-        <v>0.4832435952637013</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9291539454301798</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.064885714168639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.824795548680413</v>
+      </c>
+      <c r="Q4">
+        <v>1.611646654250933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7113961372222946</v>
+        <v>1.782300488871698</v>
       </c>
       <c r="C5">
-        <v>0.09814769922603261</v>
+        <v>0.5362656175257428</v>
       </c>
       <c r="D5">
-        <v>0.1488292793263923</v>
+        <v>0.4980687668607118</v>
       </c>
       <c r="E5">
-        <v>0.2427852181043164</v>
+        <v>0.2345705590242773</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008129335397679603</v>
+        <v>0.4314322256616521</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.573582009994361E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0008375700760292482</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3441493959087865</v>
       </c>
       <c r="K5">
-        <v>0.733667792127946</v>
+        <v>0.2519883679270052</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1481671937447686</v>
       </c>
       <c r="M5">
-        <v>0.4627797997505567</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9403935615473422</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.042231876508879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8245087379980092</v>
+      </c>
+      <c r="Q5">
+        <v>1.583469965659219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7062211620277594</v>
+        <v>1.768152664509813</v>
       </c>
       <c r="C6">
-        <v>0.09755161189201544</v>
+        <v>0.5337723633500957</v>
       </c>
       <c r="D6">
-        <v>0.1477571213958839</v>
+        <v>0.4955925659226921</v>
       </c>
       <c r="E6">
-        <v>0.2410829467381106</v>
+        <v>0.2333073467327296</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008131253876204948</v>
+        <v>0.4292763093415743</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.800784241918102E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0009119537297905822</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.34329158626322</v>
       </c>
       <c r="K6">
-        <v>0.7283460243353375</v>
+        <v>0.251572099614517</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1472864363369268</v>
       </c>
       <c r="M6">
-        <v>0.4593884209262811</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9422783569197577</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.038529223130723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8249603916279469</v>
+      </c>
+      <c r="Q6">
+        <v>1.577089686587755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7421695780980428</v>
+        <v>1.854983781918264</v>
       </c>
       <c r="C7">
-        <v>0.101689129424642</v>
+        <v>0.5595944247722002</v>
       </c>
       <c r="D7">
-        <v>0.1552107021842346</v>
+        <v>0.5127143028020669</v>
       </c>
       <c r="E7">
-        <v>0.2529334608843286</v>
+        <v>0.242011191722483</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008118016503845293</v>
+        <v>0.4395936716537108</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.58714438189822E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001105524867372587</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3468767684673821</v>
       </c>
       <c r="K7">
-        <v>0.7653067568609231</v>
+        <v>0.2514875445329032</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1533353348685225</v>
       </c>
       <c r="M7">
-        <v>0.4829671585580471</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9293042830148011</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.064576203734077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8261411362007891</v>
+      </c>
+      <c r="Q7">
+        <v>1.606562591313462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9016249303918471</v>
+        <v>2.239891192782011</v>
       </c>
       <c r="C8">
-        <v>0.1199606899737091</v>
+        <v>0.6715327501304387</v>
       </c>
       <c r="D8">
-        <v>0.1884227509008127</v>
+        <v>0.5886438602892383</v>
       </c>
       <c r="E8">
-        <v>0.3061820064939624</v>
+        <v>0.2804430861062528</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008061525052863741</v>
+        <v>0.4873478793827388</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002770407626122573</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002091911948209457</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3639951879462586</v>
       </c>
       <c r="K8">
-        <v>0.9290676822206478</v>
+        <v>0.2525242510633099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1800193162161605</v>
       </c>
       <c r="M8">
-        <v>0.5881006749153386</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8748021669835033</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.188510366369258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8315722525280762</v>
+      </c>
+      <c r="Q8">
+        <v>1.744036619054981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.218520432392751</v>
+        <v>2.995568514043669</v>
       </c>
       <c r="C9">
-        <v>0.1559782004990637</v>
+        <v>0.8886926013397556</v>
       </c>
       <c r="D9">
-        <v>0.255049020247327</v>
+        <v>0.7392337789523538</v>
       </c>
       <c r="E9">
-        <v>0.4149900032303364</v>
+        <v>0.3560435141268101</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007957327234781097</v>
+        <v>0.5871438959410398</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002953976850193829</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005124274511508098</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.401238080056487</v>
       </c>
       <c r="K9">
-        <v>1.253842231138009</v>
+        <v>0.2582700745828852</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2324457706458603</v>
       </c>
       <c r="M9">
-        <v>0.7994653924487523</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.778482261175256</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.468220619479894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8454855796287859</v>
+      </c>
+      <c r="Q9">
+        <v>2.034282146834755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455208283495438</v>
+        <v>3.533436631841028</v>
       </c>
       <c r="C10">
-        <v>0.182700281972771</v>
+        <v>1.044693375411782</v>
       </c>
       <c r="D10">
-        <v>0.3052668927063422</v>
+        <v>0.8343951730437595</v>
       </c>
       <c r="E10">
-        <v>0.4986033598859905</v>
+        <v>0.3982441700714716</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007884451468239714</v>
+        <v>0.6536337228882871</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006398172423028647</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.008407994364723947</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4255767530110717</v>
       </c>
       <c r="K10">
-        <v>1.49599513940376</v>
+        <v>0.2605609926392525</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2581157650969317</v>
       </c>
       <c r="M10">
-        <v>0.9592756346166809</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7148390983333854</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.700552924955957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8657412363006785</v>
+      </c>
+      <c r="Q10">
+        <v>2.226668108162301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.564038086851241</v>
+        <v>3.661174737736019</v>
       </c>
       <c r="C11">
-        <v>0.1949491157099743</v>
+        <v>1.0597775794987</v>
       </c>
       <c r="D11">
-        <v>0.3284727750786516</v>
+        <v>0.7360027842001102</v>
       </c>
       <c r="E11">
-        <v>0.5376831310210832</v>
+        <v>0.3075585159238159</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007852017463950143</v>
+        <v>0.6068924525829971</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02478642204689763</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009757152838915317</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3987508011503849</v>
       </c>
       <c r="K11">
-        <v>1.607246530232004</v>
+        <v>0.2359557422457179</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1708148318680429</v>
       </c>
       <c r="M11">
-        <v>1.033288839298187</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.68759928554379</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.813154666265604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9282198948205291</v>
+      </c>
+      <c r="Q11">
+        <v>2.071583391900674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.605443995420302</v>
+        <v>3.65938119915387</v>
       </c>
       <c r="C12">
-        <v>0.1996040187480475</v>
+        <v>1.034685994976513</v>
       </c>
       <c r="D12">
-        <v>0.3373198403890854</v>
+        <v>0.6386658344401326</v>
       </c>
       <c r="E12">
-        <v>0.5526541014744595</v>
+        <v>0.2335981997908121</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007839831662944267</v>
+        <v>0.5567200884608638</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06291484442687789</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009818881626009635</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3724331417952556</v>
       </c>
       <c r="K12">
-        <v>1.649560724846651</v>
+        <v>0.2168247687467471</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1109915439483444</v>
       </c>
       <c r="M12">
-        <v>1.061534724259296</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6775458036553488</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.856886328057669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9777928340503763</v>
+      </c>
+      <c r="Q12">
+        <v>1.910170961128898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.596517379030161</v>
+        <v>3.552222549675378</v>
       </c>
       <c r="C13">
-        <v>0.1986007127531622</v>
+        <v>0.9817341719644048</v>
       </c>
       <c r="D13">
-        <v>0.335411694228398</v>
+        <v>0.537057473141715</v>
       </c>
       <c r="E13">
-        <v>0.5494217952182936</v>
+        <v>0.1685636793573764</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007842451928391848</v>
+        <v>0.4988203579782322</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1177888973101062</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009187665892698149</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3438295177395077</v>
       </c>
       <c r="K13">
-        <v>1.640438870574627</v>
+        <v>0.1992857581856136</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06893678435858419</v>
       </c>
       <c r="M13">
-        <v>1.055441240782628</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6796991034550928</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.84741772754208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.021553990472469</v>
+      </c>
+      <c r="Q13">
+        <v>1.727502191981813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.567440512348611</v>
+        <v>3.428862162512928</v>
       </c>
       <c r="C14">
-        <v>0.195331726680493</v>
+        <v>0.9331845264876506</v>
       </c>
       <c r="D14">
-        <v>0.3291993908162851</v>
+        <v>0.4654734124754896</v>
       </c>
       <c r="E14">
-        <v>0.5389112136557515</v>
+        <v>0.1290017953099252</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007851013043031037</v>
+        <v>0.4549932490848363</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1664296154585969</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008531318196054904</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.322825972793737</v>
       </c>
       <c r="K14">
-        <v>1.610723852128729</v>
+        <v>0.1877140785938991</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05028268901991595</v>
       </c>
       <c r="M14">
-        <v>1.035608083138847</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6867668424015605</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.816730025111212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.050104576476215</v>
+      </c>
+      <c r="Q14">
+        <v>1.590549273892321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.549656273464763</v>
+        <v>3.375348506056639</v>
       </c>
       <c r="C15">
-        <v>0.193331631341664</v>
+        <v>0.9166020603300069</v>
       </c>
       <c r="D15">
-        <v>0.325402157528444</v>
+        <v>0.4465493905226197</v>
       </c>
       <c r="E15">
-        <v>0.5324963140026924</v>
+        <v>0.1198748829452043</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007856269293886849</v>
+        <v>0.4421598576296759</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1786543236513296</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008329640389217019</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3169833076819657</v>
       </c>
       <c r="K15">
-        <v>1.59254760987136</v>
+        <v>0.1848966635638334</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04705926553881756</v>
       </c>
       <c r="M15">
-        <v>1.023489106134953</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6911305924231002</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.798078151600407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.05598109661706</v>
+      </c>
+      <c r="Q15">
+        <v>1.551073879891447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448121645920992</v>
+        <v>3.166139729758356</v>
       </c>
       <c r="C16">
-        <v>0.1819019256460734</v>
+        <v>0.8631514301086725</v>
       </c>
       <c r="D16">
-        <v>0.3037582376018975</v>
+        <v>0.4290484818585156</v>
       </c>
       <c r="E16">
-        <v>0.4960722599162111</v>
+        <v>0.1169768788352883</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007886584965186016</v>
+        <v>0.4254487460052871</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1646650035247461</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007140069990944298</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3122093359884275</v>
       </c>
       <c r="K16">
-        <v>1.488748993155298</v>
+        <v>0.1869545127641352</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04604348194880359</v>
       </c>
       <c r="M16">
-        <v>0.9544676271225967</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7166550246376389</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.693341412576075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.036259646638641</v>
+      </c>
+      <c r="Q16">
+        <v>1.505455641266337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.386149382453794</v>
+        <v>3.070958470530115</v>
       </c>
       <c r="C17">
-        <v>0.1749161239515047</v>
+        <v>0.8479223526786939</v>
       </c>
       <c r="D17">
-        <v>0.2905781535034464</v>
+        <v>0.4526532430812438</v>
       </c>
       <c r="E17">
-        <v>0.4740097690905642</v>
+        <v>0.1343913404973307</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007905361661179366</v>
+        <v>0.4356090282967244</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.126300241422399</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006603067376394378</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3196057020594338</v>
       </c>
       <c r="K17">
-        <v>1.425371695035722</v>
+        <v>0.1945886741143852</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05321133747530205</v>
       </c>
       <c r="M17">
-        <v>0.9124821908471503</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7327624878143908</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.630926376223215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.006360545527556</v>
+      </c>
+      <c r="Q17">
+        <v>1.542365512679908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.350611906274111</v>
+        <v>3.065395717482886</v>
       </c>
       <c r="C18">
-        <v>0.1709066053429353</v>
+        <v>0.8615841195738199</v>
       </c>
       <c r="D18">
-        <v>0.2830308624453579</v>
+        <v>0.5176050893361435</v>
       </c>
       <c r="E18">
-        <v>0.4614167925770332</v>
+        <v>0.1771418572938863</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007916229502863069</v>
+        <v>0.4717837461725338</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07346360986358036</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006276415416993864</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3390918367127398</v>
       </c>
       <c r="K18">
-        <v>1.389019970934442</v>
+        <v>0.208880775638999</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07773068248235404</v>
       </c>
       <c r="M18">
-        <v>0.8884551033427712</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7421871946249183</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.595671229734819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9640590876614255</v>
+      </c>
+      <c r="Q18">
+        <v>1.65979863172285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.338597153735975</v>
+        <v>3.12526761608558</v>
       </c>
       <c r="C19">
-        <v>0.1695504237802936</v>
+        <v>0.9028212053884772</v>
       </c>
       <c r="D19">
-        <v>0.2804810211339941</v>
+        <v>0.6166442163795978</v>
       </c>
       <c r="E19">
-        <v>0.4571690053814805</v>
+        <v>0.2462764421847865</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007919921046142808</v>
+        <v>0.5254132469418948</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02884772790059031</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006636581746541914</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3662824791757942</v>
       </c>
       <c r="K19">
-        <v>1.376728463294143</v>
+        <v>0.2268110470912923</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.128789993674097</v>
       </c>
       <c r="M19">
-        <v>0.8803400070975798</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7454052879038429</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.583842257783857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9201225782366862</v>
+      </c>
+      <c r="Q19">
+        <v>1.83042311418032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.392735133820906</v>
+        <v>3.380418572087706</v>
       </c>
       <c r="C20">
-        <v>0.1756588695009356</v>
+        <v>1.011890680175838</v>
       </c>
       <c r="D20">
-        <v>0.2919776716193638</v>
+        <v>0.8085484956777691</v>
       </c>
       <c r="E20">
-        <v>0.4763481874782087</v>
+        <v>0.3865211510524063</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007903355862699998</v>
+        <v>0.6309998848505813</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005343860717529569</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008127889939615329</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4165509764779216</v>
       </c>
       <c r="K20">
-        <v>1.432107643270058</v>
+        <v>0.2568448957782401</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2507544818017067</v>
       </c>
       <c r="M20">
-        <v>0.916938797430312</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7310311409200452</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.6375031947411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8650499402884577</v>
+      </c>
+      <c r="Q20">
+        <v>2.159667164430289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.575975583968756</v>
+        <v>3.814086641446067</v>
       </c>
       <c r="C21">
-        <v>0.1962914314952968</v>
+        <v>1.14136795273788</v>
       </c>
       <c r="D21">
-        <v>0.3310224172346636</v>
+        <v>0.9081988790916284</v>
       </c>
       <c r="E21">
-        <v>0.5419935622665548</v>
+        <v>0.4401552194690979</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007848495881970167</v>
+        <v>0.6976147446955991</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008664450124738876</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01100816952884287</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4430117381915295</v>
       </c>
       <c r="K21">
-        <v>1.619446596039239</v>
+        <v>0.2642423991259655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2907387446773413</v>
       </c>
       <c r="M21">
-        <v>1.041427377700209</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6846836452378042</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.825713295100229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8727489336609437</v>
+      </c>
+      <c r="Q21">
+        <v>2.356646072238817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.696881623598841</v>
+        <v>4.095585970510285</v>
       </c>
       <c r="C22">
-        <v>0.2098740820261753</v>
+        <v>1.219403083776797</v>
       </c>
       <c r="D22">
-        <v>0.3568911580635614</v>
+        <v>0.9651696339301736</v>
       </c>
       <c r="E22">
-        <v>0.5859128190406295</v>
+        <v>0.4684116496553514</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000781319914047198</v>
+        <v>0.7393002373709265</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01115709706180817</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01283210947847202</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4594737059698986</v>
       </c>
       <c r="K22">
-        <v>1.742980766972181</v>
+        <v>0.2691362401251567</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3103494880535607</v>
       </c>
       <c r="M22">
-        <v>1.124078276903575</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6559260938504821</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.955134920961797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8793635734658949</v>
+      </c>
+      <c r="Q22">
+        <v>2.479707050536064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.632236999710443</v>
+        <v>3.949747800113755</v>
       </c>
       <c r="C23">
-        <v>0.20261466009174</v>
+        <v>1.174430312092625</v>
       </c>
       <c r="D23">
-        <v>0.3430497910447201</v>
+        <v>0.9347526899904608</v>
       </c>
       <c r="E23">
-        <v>0.5623714006794032</v>
+        <v>0.4533406128271693</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007831989101244607</v>
+        <v>0.718740080307569</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00980081281697804</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01158298234695021</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4515364375430266</v>
       </c>
       <c r="K23">
-        <v>1.676937868873068</v>
+        <v>0.2675876218118027</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2998969520399015</v>
       </c>
       <c r="M23">
-        <v>1.079837363663366</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6711287843298166</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.885438651931111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8739477362935588</v>
+      </c>
+      <c r="Q23">
+        <v>2.419383339852004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.389757433616523</v>
+        <v>3.389908414736567</v>
       </c>
       <c r="C24">
-        <v>0.1753230535690307</v>
+        <v>1.010290365165218</v>
       </c>
       <c r="D24">
-        <v>0.2913448562392347</v>
+        <v>0.8202965871309402</v>
       </c>
       <c r="E24">
-        <v>0.47529070660093</v>
+        <v>0.3964705779070457</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000790426245645233</v>
+        <v>0.6395458037380166</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005372140496069266</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007728200870294799</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4208954032625911</v>
       </c>
       <c r="K24">
-        <v>1.429062059270308</v>
+        <v>0.2607016589788067</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.260459202808093</v>
       </c>
       <c r="M24">
-        <v>0.9149236223760582</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7318133722127627</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.634527866026758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8579595670334896</v>
+      </c>
+      <c r="Q24">
+        <v>2.186877697115762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132213097034651</v>
+        <v>2.785090952780195</v>
       </c>
       <c r="C25">
-        <v>0.1462001334434859</v>
+        <v>0.8345680034897782</v>
       </c>
       <c r="D25">
-        <v>0.2368293986500589</v>
+        <v>0.6982366305062726</v>
       </c>
       <c r="E25">
-        <v>0.3849868288529521</v>
+        <v>0.3355168279042715</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007984844078687438</v>
+        <v>0.5570339916022959</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001968741842017119</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004494639004158252</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3895285098587351</v>
       </c>
       <c r="K25">
-        <v>1.165461923763559</v>
+        <v>0.2547873762726525</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2182042964873787</v>
       </c>
       <c r="M25">
-        <v>0.7415960328458979</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8033413510602436</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.388183788300552</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8436965157720664</v>
+      </c>
+      <c r="Q25">
+        <v>1.945750527198356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.348881573288338</v>
+        <v>2.287827482151613</v>
       </c>
       <c r="C2">
-        <v>0.6981959232398367</v>
+        <v>0.7399846569991837</v>
       </c>
       <c r="D2">
-        <v>0.6093481636773674</v>
+        <v>0.6088898493249815</v>
       </c>
       <c r="E2">
-        <v>0.2908904182498873</v>
+        <v>0.2905178970398623</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5025897049928005</v>
+        <v>0.4572140267398339</v>
       </c>
       <c r="H2">
-        <v>0.0004884016939457059</v>
+        <v>0.0004528149461104913</v>
       </c>
       <c r="I2">
-        <v>0.002189203410447149</v>
+        <v>0.002390168088357569</v>
       </c>
       <c r="J2">
-        <v>0.3698433386989137</v>
+        <v>0.3984356753241087</v>
       </c>
       <c r="K2">
-        <v>0.2542604019062722</v>
+        <v>0.2351706331420793</v>
       </c>
       <c r="L2">
-        <v>0.1872754870104032</v>
+        <v>0.1391444552722483</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05095057118335156</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1868982495510352</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8314385453030653</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.788695587036642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.852401841959221</v>
+      </c>
+      <c r="S2">
+        <v>1.708166252421336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.046187874422742</v>
+        <v>1.999093187255198</v>
       </c>
       <c r="C3">
-        <v>0.610669606176117</v>
+        <v>0.6419931442178211</v>
       </c>
       <c r="D3">
-        <v>0.5495075383176697</v>
+        <v>0.5494277850773415</v>
       </c>
       <c r="E3">
-        <v>0.2606757218741365</v>
+        <v>0.2606109152295346</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4643108428883664</v>
+        <v>0.4238386910951135</v>
       </c>
       <c r="H3">
-        <v>3.878271910395803E-05</v>
+        <v>3.698213027503172E-05</v>
       </c>
       <c r="I3">
-        <v>0.001288116748309864</v>
+        <v>0.001537080046477346</v>
       </c>
       <c r="J3">
-        <v>0.355941760238025</v>
+        <v>0.3842310668008366</v>
       </c>
       <c r="K3">
-        <v>0.2529826521238192</v>
+        <v>0.2358598235825156</v>
       </c>
       <c r="L3">
-        <v>0.1663067758900141</v>
+        <v>0.1436197508664883</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04807235968521084</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1662420283895401</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8268919016581719</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.678137531292919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8401048250493091</v>
+      </c>
+      <c r="S3">
+        <v>1.611184360942104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.859593300258069</v>
+        <v>1.820773736012825</v>
       </c>
       <c r="C4">
-        <v>0.5571971712775223</v>
+        <v>0.5822779872649164</v>
       </c>
       <c r="D4">
-        <v>0.51293957488096</v>
+        <v>0.5130888672000822</v>
       </c>
       <c r="E4">
-        <v>0.2421331257903958</v>
+        <v>0.2422543493672862</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4412001579743077</v>
+        <v>0.4037153262379434</v>
       </c>
       <c r="H4">
-        <v>1.506624379166155E-05</v>
+        <v>1.298598100230031E-05</v>
       </c>
       <c r="I4">
-        <v>0.0008973739074558118</v>
+        <v>0.00114947970345991</v>
       </c>
       <c r="J4">
-        <v>0.3476777520883445</v>
+        <v>0.3755680126061947</v>
       </c>
       <c r="K4">
-        <v>0.252436520628283</v>
+        <v>0.2364380745139947</v>
       </c>
       <c r="L4">
-        <v>0.1534259760893733</v>
+        <v>0.1464610309853391</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04683600648397501</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1535459619254382</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.824795548680413</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.611646654250933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8333428207794071</v>
+      </c>
+      <c r="S4">
+        <v>1.552580668558562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.782300488871698</v>
+        <v>1.746792296745838</v>
       </c>
       <c r="C5">
-        <v>0.5362656175257428</v>
+        <v>0.5588738665521191</v>
       </c>
       <c r="D5">
-        <v>0.4980687668607118</v>
+        <v>0.4983112183763012</v>
       </c>
       <c r="E5">
-        <v>0.2345705590242773</v>
+        <v>0.2347673348374144</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4314322256616521</v>
+        <v>0.3951725302043201</v>
       </c>
       <c r="H5">
-        <v>6.573582009994361E-05</v>
+        <v>5.857918329144063E-05</v>
       </c>
       <c r="I5">
-        <v>0.0008375700760292482</v>
+        <v>0.001097409686923179</v>
       </c>
       <c r="J5">
-        <v>0.3441493959087865</v>
+        <v>0.3718219771400015</v>
       </c>
       <c r="K5">
-        <v>0.2519883679270052</v>
+        <v>0.2364433114656066</v>
       </c>
       <c r="L5">
-        <v>0.1481671937447686</v>
+        <v>0.1475020811327283</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04640123830896847</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1483611631354762</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8245087379980092</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.583469965659219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8312023355058429</v>
+      </c>
+      <c r="S5">
+        <v>1.527538886452248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.768152664509813</v>
+        <v>1.733203453515728</v>
       </c>
       <c r="C6">
-        <v>0.5337723633500957</v>
+        <v>0.5560044666261206</v>
       </c>
       <c r="D6">
-        <v>0.4955925659226921</v>
+        <v>0.4958508286678125</v>
       </c>
       <c r="E6">
-        <v>0.2333073467327296</v>
+        <v>0.2335169325305984</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4292763093415743</v>
+        <v>0.3932369314714066</v>
       </c>
       <c r="H6">
-        <v>7.800784241918102E-05</v>
+        <v>6.96898318435224E-05</v>
       </c>
       <c r="I6">
-        <v>0.0009119537297905822</v>
+        <v>0.001189649935499304</v>
       </c>
       <c r="J6">
-        <v>0.34329158626322</v>
+        <v>0.3709207485702848</v>
       </c>
       <c r="K6">
-        <v>0.251572099614517</v>
+        <v>0.2361202225973251</v>
       </c>
       <c r="L6">
-        <v>0.1472864363369268</v>
+        <v>0.1475057698314366</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04625953100380542</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1474928835912195</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8249603916279469</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.577089686587755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8313771358997073</v>
+      </c>
+      <c r="S6">
+        <v>1.521709045383631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.854983781918264</v>
+        <v>1.814947538401782</v>
       </c>
       <c r="C7">
-        <v>0.5595944247722002</v>
+        <v>0.5838104746170814</v>
       </c>
       <c r="D7">
-        <v>0.5127143028020669</v>
+        <v>0.5128447146156532</v>
       </c>
       <c r="E7">
-        <v>0.242011191722483</v>
+        <v>0.242117075458907</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4395936716537108</v>
+        <v>0.4054988799903327</v>
       </c>
       <c r="H7">
-        <v>1.58714438189822E-05</v>
+        <v>1.399572517768455E-05</v>
       </c>
       <c r="I7">
-        <v>0.001105524867372587</v>
+        <v>0.001399431894713032</v>
       </c>
       <c r="J7">
-        <v>0.3468767684673821</v>
+        <v>0.3696942925485303</v>
       </c>
       <c r="K7">
-        <v>0.2514875445329032</v>
+        <v>0.2352341796980468</v>
       </c>
       <c r="L7">
-        <v>0.1533353348685225</v>
+        <v>0.1458607856411263</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04652725544007374</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1534401215279217</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8261411362007891</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.606562591313462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8352904644520649</v>
+      </c>
+      <c r="S7">
+        <v>1.54450667238342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.239891192782011</v>
+        <v>2.17941589354092</v>
       </c>
       <c r="C8">
-        <v>0.6715327501304387</v>
+        <v>0.7067059140029812</v>
       </c>
       <c r="D8">
-        <v>0.5886438602892383</v>
+        <v>0.5882511307700042</v>
       </c>
       <c r="E8">
-        <v>0.2804430861062528</v>
+        <v>0.280123909062354</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4873478793827388</v>
+        <v>0.4548895553466537</v>
       </c>
       <c r="H8">
-        <v>0.0002770407626122573</v>
+        <v>0.0002539401612071668</v>
       </c>
       <c r="I8">
-        <v>0.002091911948209457</v>
+        <v>0.002360111640896001</v>
       </c>
       <c r="J8">
-        <v>0.3639951879462586</v>
+        <v>0.3759130424611214</v>
       </c>
       <c r="K8">
-        <v>0.2525242510633099</v>
+        <v>0.2331804727957056</v>
       </c>
       <c r="L8">
-        <v>0.1800193162161605</v>
+        <v>0.1396500786183097</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04919307463603673</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1796975805157501</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8315722525280762</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.744036619054981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8518541155543744</v>
+      </c>
+      <c r="S8">
+        <v>1.658029111515873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.995568514043669</v>
+        <v>2.897156166421212</v>
       </c>
       <c r="C9">
-        <v>0.8886926013397556</v>
+        <v>0.9499751893592929</v>
       </c>
       <c r="D9">
-        <v>0.7392337789523538</v>
+        <v>0.7378431470893361</v>
       </c>
       <c r="E9">
-        <v>0.3560435141268101</v>
+        <v>0.3549159369119295</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5871438959410398</v>
+        <v>0.5454516937648322</v>
       </c>
       <c r="H9">
-        <v>0.002953976850193829</v>
+        <v>0.002702952587685381</v>
       </c>
       <c r="I9">
-        <v>0.005124274511508098</v>
+        <v>0.005044150082381016</v>
       </c>
       <c r="J9">
-        <v>0.401238080056487</v>
+        <v>0.4079865478258426</v>
       </c>
       <c r="K9">
-        <v>0.2582700745828852</v>
+        <v>0.2331972851941089</v>
       </c>
       <c r="L9">
-        <v>0.2324457706458603</v>
+        <v>0.1295171765876901</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05946576113301205</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2312769141956892</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8454855796287859</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.034282146834755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.886168426283092</v>
+      </c>
+      <c r="S9">
+        <v>1.9086786476594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.533436631841028</v>
+        <v>3.398983496899916</v>
       </c>
       <c r="C10">
-        <v>1.044693375411782</v>
+        <v>1.119344786035981</v>
       </c>
       <c r="D10">
-        <v>0.8343951730437595</v>
+        <v>0.8321482799775879</v>
       </c>
       <c r="E10">
-        <v>0.3982441700714716</v>
+        <v>0.3964319515255141</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6536337228882871</v>
+        <v>0.625919415047818</v>
       </c>
       <c r="H10">
-        <v>0.006398172423028647</v>
+        <v>0.005831315618868516</v>
       </c>
       <c r="I10">
-        <v>0.008407994364723947</v>
+        <v>0.007899132162709321</v>
       </c>
       <c r="J10">
-        <v>0.4255767530110717</v>
+        <v>0.3997696139670381</v>
       </c>
       <c r="K10">
-        <v>0.2605609926392525</v>
+        <v>0.2296461804035204</v>
       </c>
       <c r="L10">
-        <v>0.2581157650969317</v>
+        <v>0.1209323370271562</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06785113165600265</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2562081043223969</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8657412363006785</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.226668108162301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9254925832819794</v>
+      </c>
+      <c r="S10">
+        <v>2.053740086069467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.661174737736019</v>
+        <v>3.508593478296007</v>
       </c>
       <c r="C11">
-        <v>1.0597775794987</v>
+        <v>1.12136433016542</v>
       </c>
       <c r="D11">
-        <v>0.7360027842001102</v>
+        <v>0.7335717045402248</v>
       </c>
       <c r="E11">
-        <v>0.3075585159238159</v>
+        <v>0.3056185988306694</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6068924525829971</v>
+        <v>0.6245100985696297</v>
       </c>
       <c r="H11">
-        <v>0.02478642204689763</v>
+        <v>0.02413770258437964</v>
       </c>
       <c r="I11">
-        <v>0.009757152838915317</v>
+        <v>0.009153013107144226</v>
       </c>
       <c r="J11">
-        <v>0.3987508011503849</v>
+        <v>0.3230507483579146</v>
       </c>
       <c r="K11">
-        <v>0.2359557422457179</v>
+        <v>0.2045879103397574</v>
       </c>
       <c r="L11">
-        <v>0.1708148318680429</v>
+        <v>0.1091593519860883</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06198099314262961</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1687571417264522</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9282198948205291</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.071583391900674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.003431326912803</v>
+      </c>
+      <c r="S11">
+        <v>1.870761404197395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.65938119915387</v>
+        <v>3.504187974477134</v>
       </c>
       <c r="C12">
-        <v>1.034685994976513</v>
+        <v>1.085858280515481</v>
       </c>
       <c r="D12">
-        <v>0.6386658344401326</v>
+        <v>0.6363334576511477</v>
       </c>
       <c r="E12">
-        <v>0.2335981997908121</v>
+        <v>0.2317473670334991</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5567200884608638</v>
+        <v>0.5953362755484335</v>
       </c>
       <c r="H12">
-        <v>0.06291484442687789</v>
+        <v>0.06227607967340276</v>
       </c>
       <c r="I12">
-        <v>0.009818881626009635</v>
+        <v>0.009176112890533439</v>
       </c>
       <c r="J12">
-        <v>0.3724331417952556</v>
+        <v>0.282046021114148</v>
       </c>
       <c r="K12">
-        <v>0.2168247687467471</v>
+        <v>0.1874124231574967</v>
       </c>
       <c r="L12">
-        <v>0.1109915439483444</v>
+        <v>0.1023948321863326</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05620081271639421</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1090129807744589</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9777928340503763</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.910170961128898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.059573247551313</v>
+      </c>
+      <c r="S12">
+        <v>1.708421144604614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.552222549675378</v>
+        <v>3.40980990159386</v>
       </c>
       <c r="C13">
-        <v>0.9817341719644048</v>
+        <v>1.026398060806969</v>
       </c>
       <c r="D13">
-        <v>0.537057473141715</v>
+        <v>0.5350311918960529</v>
       </c>
       <c r="E13">
-        <v>0.1685636793573764</v>
+        <v>0.166958256894727</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4988203579782322</v>
+        <v>0.5333627536876548</v>
       </c>
       <c r="H13">
-        <v>0.1177888973101062</v>
+        <v>0.117236070598949</v>
       </c>
       <c r="I13">
-        <v>0.009187665892698149</v>
+        <v>0.008641699153466575</v>
       </c>
       <c r="J13">
-        <v>0.3438295177395077</v>
+        <v>0.2673138629361986</v>
       </c>
       <c r="K13">
-        <v>0.1992857581856136</v>
+        <v>0.1742065847501237</v>
       </c>
       <c r="L13">
-        <v>0.06893678435858419</v>
+        <v>0.09822932986165611</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0500302845262226</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06720685380072311</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.021553990472469</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.727502191981813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.10087293220657</v>
+      </c>
+      <c r="S13">
+        <v>1.550655785717879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.428862162512928</v>
+        <v>3.302007709682982</v>
       </c>
       <c r="C14">
-        <v>0.9331845264876506</v>
+        <v>0.9748739598791758</v>
       </c>
       <c r="D14">
-        <v>0.4654734124754896</v>
+        <v>0.463728404975484</v>
       </c>
       <c r="E14">
-        <v>0.1290017953099252</v>
+        <v>0.1276174430853487</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4549932490848363</v>
+        <v>0.4771177579699213</v>
       </c>
       <c r="H14">
-        <v>0.1664296154585969</v>
+        <v>0.1659619632852838</v>
       </c>
       <c r="I14">
-        <v>0.008531318196054904</v>
+        <v>0.008121545192027568</v>
       </c>
       <c r="J14">
-        <v>0.322825972793737</v>
+        <v>0.266532901777083</v>
       </c>
       <c r="K14">
-        <v>0.1877140785938991</v>
+        <v>0.1664904411518329</v>
       </c>
       <c r="L14">
-        <v>0.05028268901991595</v>
+        <v>0.09625390147103374</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04557780693069446</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04878216482464914</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.050104576476215</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.590549273892321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.1233817178355</v>
+      </c>
+      <c r="S14">
+        <v>1.44089924095735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.375348506056639</v>
+        <v>3.255186680062877</v>
       </c>
       <c r="C15">
-        <v>0.9166020603300069</v>
+        <v>0.958170731789096</v>
       </c>
       <c r="D15">
-        <v>0.4465493905226197</v>
+        <v>0.4449077756937925</v>
       </c>
       <c r="E15">
-        <v>0.1198748829452043</v>
+        <v>0.1185714974590262</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4421598576296759</v>
+        <v>0.4574102732430418</v>
       </c>
       <c r="H15">
-        <v>0.1786543236513296</v>
+        <v>0.1782227215819319</v>
       </c>
       <c r="I15">
-        <v>0.008329640389217019</v>
+        <v>0.008001081222800188</v>
       </c>
       <c r="J15">
-        <v>0.3169833076819657</v>
+        <v>0.2702326268041162</v>
       </c>
       <c r="K15">
-        <v>0.1848966635638334</v>
+        <v>0.1650072753072003</v>
       </c>
       <c r="L15">
-        <v>0.04705926553881756</v>
+        <v>0.09609515406270575</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04430855558074498</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04564565551579847</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.05598109661706</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.551073879891447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.125983534199946</v>
+      </c>
+      <c r="S15">
+        <v>1.412334991788043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.166139729758356</v>
+        <v>3.070746226813924</v>
       </c>
       <c r="C16">
-        <v>0.8631514301086725</v>
+        <v>0.9087438733195654</v>
       </c>
       <c r="D16">
-        <v>0.4290484818585156</v>
+        <v>0.4277510724245985</v>
       </c>
       <c r="E16">
-        <v>0.1169768788352883</v>
+        <v>0.1159445640795624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4254487460052871</v>
+        <v>0.4091979996499759</v>
       </c>
       <c r="H16">
-        <v>0.1646650035247461</v>
+        <v>0.1643789639899893</v>
       </c>
       <c r="I16">
-        <v>0.007140069990944298</v>
+        <v>0.007063942876271767</v>
       </c>
       <c r="J16">
-        <v>0.3122093359884275</v>
+        <v>0.3064666334805253</v>
       </c>
       <c r="K16">
-        <v>0.1869545127641352</v>
+        <v>0.1703722055314607</v>
       </c>
       <c r="L16">
-        <v>0.04604348194880359</v>
+        <v>0.09987167592219848</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0431542650747172</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04493651139551691</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.036259646638641</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.505455641266337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.090880655620339</v>
+      </c>
+      <c r="S16">
+        <v>1.403471257700517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.070958470530115</v>
+        <v>2.984230131688946</v>
       </c>
       <c r="C17">
-        <v>0.8479223526786939</v>
+        <v>0.8968499493163336</v>
       </c>
       <c r="D17">
-        <v>0.4526532430812438</v>
+        <v>0.4514791351902261</v>
       </c>
       <c r="E17">
-        <v>0.1343913404973307</v>
+        <v>0.1334564894554759</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4356090282967244</v>
+        <v>0.405369177548522</v>
       </c>
       <c r="H17">
-        <v>0.126300241422399</v>
+        <v>0.1260736444672972</v>
       </c>
       <c r="I17">
-        <v>0.006603067376394378</v>
+        <v>0.006641170588639334</v>
       </c>
       <c r="J17">
-        <v>0.3196057020594338</v>
+        <v>0.3317862528279392</v>
       </c>
       <c r="K17">
-        <v>0.1945886741143852</v>
+        <v>0.1783988759639072</v>
       </c>
       <c r="L17">
-        <v>0.05321133747530205</v>
+        <v>0.1040129692723841</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04439232228240009</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0522203165655224</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.006360545527556</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.542365512679908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.05416924965381</v>
+      </c>
+      <c r="S17">
+        <v>1.451626270888681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.065395717482886</v>
+        <v>2.977709536237626</v>
       </c>
       <c r="C18">
-        <v>0.8615841195738199</v>
+        <v>0.9156659004926269</v>
       </c>
       <c r="D18">
-        <v>0.5176050893361435</v>
+        <v>0.5164011873932282</v>
       </c>
       <c r="E18">
-        <v>0.1771418572938863</v>
+        <v>0.1761817734609146</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4717837461725338</v>
+        <v>0.4331163798369317</v>
       </c>
       <c r="H18">
-        <v>0.07346360986358036</v>
+        <v>0.07324453022078359</v>
       </c>
       <c r="I18">
-        <v>0.006276415416993864</v>
+        <v>0.006294470749038439</v>
       </c>
       <c r="J18">
-        <v>0.3390918367127398</v>
+        <v>0.3580806899780669</v>
       </c>
       <c r="K18">
-        <v>0.208880775638999</v>
+        <v>0.1910610547220166</v>
       </c>
       <c r="L18">
-        <v>0.07773068248235404</v>
+        <v>0.1095115635860768</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04821921039535049</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07672281960500626</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9640590876614255</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.65979863172285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.009492408794699</v>
+      </c>
+      <c r="S18">
+        <v>1.565661415250105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.12526761608558</v>
+        <v>3.030299730023103</v>
       </c>
       <c r="C19">
-        <v>0.9028212053884772</v>
+        <v>0.964279933409216</v>
       </c>
       <c r="D19">
-        <v>0.6166442163795978</v>
+        <v>0.6152820564582271</v>
       </c>
       <c r="E19">
-        <v>0.2462764421847865</v>
+        <v>0.2451857045276498</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5254132469418948</v>
+        <v>0.4806377415840188</v>
       </c>
       <c r="H19">
-        <v>0.02884772790059031</v>
+        <v>0.02858985351961962</v>
       </c>
       <c r="I19">
-        <v>0.006636581746541914</v>
+        <v>0.006645429835242744</v>
       </c>
       <c r="J19">
-        <v>0.3662824791757942</v>
+        <v>0.3857075587141168</v>
       </c>
       <c r="K19">
-        <v>0.2268110470912923</v>
+        <v>0.2060313817503143</v>
       </c>
       <c r="L19">
-        <v>0.128789993674097</v>
+        <v>0.1154733743627077</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05365318229318738</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1276506619132149</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9201225782366862</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.83042311418032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9659974677292098</v>
+      </c>
+      <c r="S19">
+        <v>1.723387701453163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.380418572087706</v>
+        <v>3.260671474999867</v>
       </c>
       <c r="C20">
-        <v>1.011890680175838</v>
+        <v>1.086780044531167</v>
       </c>
       <c r="D20">
-        <v>0.8085484956777691</v>
+        <v>0.8066030942374027</v>
       </c>
       <c r="E20">
-        <v>0.3865211510524063</v>
+        <v>0.3849498787719625</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6309998848505813</v>
+        <v>0.5873683101108043</v>
       </c>
       <c r="H20">
-        <v>0.005343860717529569</v>
+        <v>0.004888731914705069</v>
       </c>
       <c r="I20">
-        <v>0.008127889939615329</v>
+        <v>0.007929902852223059</v>
       </c>
       <c r="J20">
-        <v>0.4165509764779216</v>
+        <v>0.4166749967935885</v>
       </c>
       <c r="K20">
-        <v>0.2568448957782401</v>
+        <v>0.2288820589756639</v>
       </c>
       <c r="L20">
-        <v>0.2507544818017067</v>
+        <v>0.1225282492100597</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06485569227640298</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2491068271079371</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8650499402884577</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.159667164430289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9179257160265024</v>
+      </c>
+      <c r="S20">
+        <v>2.011325041118198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.814086641446067</v>
+        <v>3.63815560766983</v>
       </c>
       <c r="C21">
-        <v>1.14136795273788</v>
+        <v>1.209897351401992</v>
       </c>
       <c r="D21">
-        <v>0.9081988790916284</v>
+        <v>0.9051635293693892</v>
       </c>
       <c r="E21">
-        <v>0.4401552194690979</v>
+        <v>0.4377118442833492</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6976147446955991</v>
+        <v>0.7321450655302613</v>
       </c>
       <c r="H21">
-        <v>0.008664450124738876</v>
+        <v>0.007791264747161464</v>
       </c>
       <c r="I21">
-        <v>0.01100816952884287</v>
+        <v>0.01024819111740349</v>
       </c>
       <c r="J21">
-        <v>0.4430117381915295</v>
+        <v>0.3337647159556667</v>
       </c>
       <c r="K21">
-        <v>0.2642423991259655</v>
+        <v>0.2250678115139877</v>
       </c>
       <c r="L21">
-        <v>0.2907387446773413</v>
+        <v>0.115828941958112</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07136750900253119</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2881497968948139</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8727489336609437</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.356646072238817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9526404213214619</v>
+      </c>
+      <c r="S21">
+        <v>2.107208946662212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.095585970510285</v>
+        <v>3.880498109511507</v>
       </c>
       <c r="C22">
-        <v>1.219403083776797</v>
+        <v>1.281420823353074</v>
       </c>
       <c r="D22">
-        <v>0.9651696339301736</v>
+        <v>0.9614131366509753</v>
       </c>
       <c r="E22">
-        <v>0.4684116496553514</v>
+        <v>0.4653969865710863</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7393002373709265</v>
+        <v>0.8354025183608087</v>
       </c>
       <c r="H22">
-        <v>0.01115709706180817</v>
+        <v>0.009960145986472022</v>
       </c>
       <c r="I22">
-        <v>0.01283210947847202</v>
+        <v>0.01157580235127043</v>
       </c>
       <c r="J22">
-        <v>0.4594737059698986</v>
+        <v>0.2818553469826242</v>
       </c>
       <c r="K22">
-        <v>0.2691362401251567</v>
+        <v>0.2221788847937027</v>
       </c>
       <c r="L22">
-        <v>0.3103494880535607</v>
+        <v>0.1114679349689354</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0757375691002018</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3071362704809815</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8793635734658949</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.479707050536064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9782596561669266</v>
+      </c>
+      <c r="S22">
+        <v>2.159037300234161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.949747800113755</v>
+        <v>3.759153197282671</v>
       </c>
       <c r="C23">
-        <v>1.174430312092625</v>
+        <v>1.242419881211902</v>
       </c>
       <c r="D23">
-        <v>0.9347526899904608</v>
+        <v>0.9314239832567921</v>
       </c>
       <c r="E23">
-        <v>0.4533406128271693</v>
+        <v>0.4506646207942211</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.718740080307569</v>
+        <v>0.7715182606558386</v>
       </c>
       <c r="H23">
-        <v>0.00980081281697804</v>
+        <v>0.008793614675065148</v>
       </c>
       <c r="I23">
-        <v>0.01158298234695021</v>
+        <v>0.01054721550637705</v>
       </c>
       <c r="J23">
-        <v>0.4515364375430266</v>
+        <v>0.3192963132685378</v>
       </c>
       <c r="K23">
-        <v>0.2675876218118027</v>
+        <v>0.2254434254447268</v>
       </c>
       <c r="L23">
-        <v>0.2998969520399015</v>
+        <v>0.1143489097181121</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07412378209649262</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2970532730767701</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8739477362935588</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.419383339852004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9606945234920374</v>
+      </c>
+      <c r="S23">
+        <v>2.144833674669712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.389908414736567</v>
+        <v>3.269607271771633</v>
       </c>
       <c r="C24">
-        <v>1.010290365165218</v>
+        <v>1.085786680679348</v>
       </c>
       <c r="D24">
-        <v>0.8202965871309402</v>
+        <v>0.8183318373693567</v>
       </c>
       <c r="E24">
-        <v>0.3964705779070457</v>
+        <v>0.3948821389187671</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6395458037380166</v>
+        <v>0.5947093229026166</v>
       </c>
       <c r="H24">
-        <v>0.005372140496069266</v>
+        <v>0.004909471388665265</v>
       </c>
       <c r="I24">
-        <v>0.007728200870294799</v>
+        <v>0.007425758530587245</v>
       </c>
       <c r="J24">
-        <v>0.4208954032625911</v>
+        <v>0.4216415803004168</v>
       </c>
       <c r="K24">
-        <v>0.2607016589788067</v>
+        <v>0.2322725179963498</v>
       </c>
       <c r="L24">
-        <v>0.260459202808093</v>
+        <v>0.12386495191911</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06608307471979202</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2587933961688691</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8579595670334896</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.186877697115762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9103395477445275</v>
+      </c>
+      <c r="S24">
+        <v>2.037217981755418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.785090952780195</v>
+        <v>2.699233494495274</v>
       </c>
       <c r="C25">
-        <v>0.8345680034897782</v>
+        <v>0.8901892790539989</v>
       </c>
       <c r="D25">
-        <v>0.6982366305062726</v>
+        <v>0.697153731529113</v>
       </c>
       <c r="E25">
-        <v>0.3355168279042715</v>
+        <v>0.3346378746431853</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5570339916022959</v>
+        <v>0.5131037428657095</v>
       </c>
       <c r="H25">
-        <v>0.001968741842017119</v>
+        <v>0.001806349292761134</v>
       </c>
       <c r="I25">
-        <v>0.004494639004158252</v>
+        <v>0.004629181969268537</v>
       </c>
       <c r="J25">
-        <v>0.3895285098587351</v>
+        <v>0.4049796275718052</v>
       </c>
       <c r="K25">
-        <v>0.2547873762726525</v>
+        <v>0.2319277159436126</v>
       </c>
       <c r="L25">
-        <v>0.2182042964873787</v>
+        <v>0.1317277412510407</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05582744044284205</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2172992974901291</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8436965157720664</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.945750527198356</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8781574254420548</v>
+      </c>
+      <c r="S25">
+        <v>1.836079543795449</v>
       </c>
     </row>
   </sheetData>
